--- a/14.0 FORMATO N°07-C IES PROGRESO/F 7C IES PROGRESO.xlsx
+++ b/14.0 FORMATO N°07-C IES PROGRESO/F 7C IES PROGRESO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0007-PROGRESO\14.0 FORMATO N°07-C IES PROGRESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71593423-8C6F-4F4B-B466-FB45D9616ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6674B8-012A-4C3F-8AB9-FFC0A934A533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="344">
   <si>
     <t>Nombre de la inversión (en función de las acciones, activos, nombre de la unidad productora y localización geográfica de la unidad productora)</t>
   </si>
@@ -1038,45 +1032,18 @@
     <t>GRAU</t>
   </si>
   <si>
-    <t>SANTA ROSA</t>
-  </si>
-  <si>
-    <t>0104 EDUCACIÓN PRIMARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de locales educativos con el servicio de educación primaria con capacidad instalada inadecuada </t>
-  </si>
-  <si>
     <t>DISTRITAL</t>
   </si>
   <si>
     <t>JUAN FRANCISCO CISNEROS SULLCAHUAMAN</t>
   </si>
   <si>
-    <t>0200253</t>
-  </si>
-  <si>
-    <t>SERVICIO DE EDUCACIÓN PRIMARIA</t>
-  </si>
-  <si>
-    <t>N:-8435637.54;  E:-733100.07 ALTITUD 3550 msnm</t>
-  </si>
-  <si>
-    <t>OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.  INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
-  </si>
-  <si>
     <t>PINTADO Y REFACCIÓN DE ESTRUCTURA METALICA</t>
   </si>
   <si>
     <t>CADA 2 AÑOS</t>
   </si>
   <si>
-    <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411, "ANDRES AVELINO CACERES" SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
-  </si>
-  <si>
-    <t>INSTITUCION ADUCATIVA PRIMARIA  N°54411 ANDRES "AVELINO CACERES" - SANTA ROSA</t>
-  </si>
-  <si>
     <t>GERENCIA REGIONAL DE INFRAESTRUCTURA</t>
   </si>
   <si>
@@ -1084,6 +1051,33 @@
   </si>
   <si>
     <t>047 GOBIERNO REGIONAL DE APURÍMAC</t>
+  </si>
+  <si>
+    <t>“OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA “FRAY DIEGO ORTIZ” – PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURÍMAC”</t>
+  </si>
+  <si>
+    <t>0105 EDUCACIÓN SECUNDARIA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE EDUCACIÓN SECUNDARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de locales educativos con el servicio de educación secundaria con capacidad instalada inadecuada </t>
+  </si>
+  <si>
+    <t>0535914</t>
+  </si>
+  <si>
+    <t>INSTITUCION ADUCATIVA SECUNDARIA "FRAY DIEGO ORTIZ" - PROGRESO</t>
+  </si>
+  <si>
+    <t>PROGRESO</t>
+  </si>
+  <si>
+    <t>PROPGRESO</t>
+  </si>
+  <si>
+    <t>N: -8442368.70 m S;  E:-773126.38 m E, ALTITUD 3884 msnm</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1251,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1909,9 +1909,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1999,6 +1996,300 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,52 +2317,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2098,258 +2347,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2638,8 +2636,8 @@
   </sheetPr>
   <dimension ref="A3:P543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="85" zoomScaleNormal="51" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="85" zoomScaleNormal="51" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2661,52 +2659,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="188" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="232"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="191"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="192" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="195"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2740,18 +2738,18 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="162" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="154"/>
+      <c r="B8" s="259" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="153"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2947,10 +2945,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="258" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="258"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2979,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="E23" s="161"/>
+      <c r="D23" s="258" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="258"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3044,14 +3042,14 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="165" t="s">
-        <v>334</v>
-      </c>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="155"/>
+      <c r="F27" s="262" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="262"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="262"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="154"/>
       <c r="L27" s="79"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3069,22 +3067,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="238" t="s">
+      <c r="B29" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="F29" s="136" t="s">
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="F29" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="166" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="168"/>
+      <c r="G29" s="263" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" s="264"/>
+      <c r="I29" s="264"/>
+      <c r="J29" s="264"/>
+      <c r="K29" s="264"/>
+      <c r="L29" s="265"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3103,12 +3101,12 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="201" t="s">
+      <c r="B31" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="201"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="136" t="s">
+      <c r="C31" s="255"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="135" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="82" t="s">
@@ -3118,15 +3116,15 @@
         <v>17</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I31" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="141">
+      <c r="J31" s="140">
         <v>1</v>
       </c>
-      <c r="K31" s="156"/>
+      <c r="K31" s="155"/>
       <c r="L31" s="17"/>
       <c r="M31" s="89"/>
     </row>
@@ -3155,8 +3153,8 @@
       <c r="E33" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="144">
-        <v>0.5</v>
+      <c r="F33" s="143">
+        <v>0.2</v>
       </c>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
@@ -3268,12 +3266,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="194" t="s">
+      <c r="G40" s="227" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="229"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3286,12 +3284,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="194" t="s">
+      <c r="G41" s="227" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
+      <c r="H41" s="228"/>
+      <c r="I41" s="228"/>
+      <c r="J41" s="229"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3304,12 +3302,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="194" t="s">
+      <c r="G42" s="227" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="195"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="229"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3322,12 +3320,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="194" t="s">
+      <c r="G43" s="227" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="229"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3371,12 +3369,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="194" t="s">
+      <c r="G46" s="227" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
+      <c r="H46" s="228"/>
+      <c r="I46" s="228"/>
+      <c r="J46" s="229"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3389,12 +3387,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="194" t="s">
+      <c r="G47" s="227" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="195"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="196"/>
+      <c r="H47" s="228"/>
+      <c r="I47" s="228"/>
+      <c r="J47" s="229"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3407,13 +3405,13 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="216" t="s">
+      <c r="G48" s="224" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="267"/>
-      <c r="I48" s="267"/>
-      <c r="J48" s="217"/>
-      <c r="K48" s="145"/>
+      <c r="H48" s="225"/>
+      <c r="I48" s="225"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="144"/>
       <c r="L48" s="78"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3425,18 +3423,18 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="131" t="s">
-        <v>332</v>
-      </c>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="134"/>
+      <c r="G49" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="133"/>
+      <c r="P49" s="133"/>
     </row>
     <row r="50" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57"/>
@@ -3479,12 +3477,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="194" t="s">
+      <c r="G52" s="227" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="195"/>
-      <c r="I52" s="195"/>
-      <c r="J52" s="196"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="229"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3497,12 +3495,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="194" t="s">
+      <c r="G53" s="227" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="195"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="196"/>
+      <c r="H53" s="228"/>
+      <c r="I53" s="228"/>
+      <c r="J53" s="229"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3515,18 +3513,18 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="131" t="s">
-        <v>341</v>
-      </c>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="134"/>
+      <c r="G54" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="133"/>
+      <c r="O54" s="133"/>
+      <c r="P54" s="133"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
@@ -3537,18 +3535,18 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="131" t="s">
-        <v>342</v>
-      </c>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134"/>
-      <c r="P55" s="134"/>
+      <c r="G55" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="133"/>
+      <c r="P55" s="133"/>
     </row>
     <row r="56" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="57"/>
@@ -3591,18 +3589,18 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="134"/>
-      <c r="P58" s="134"/>
+      <c r="G58" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="133"/>
     </row>
     <row r="59" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="57"/>
@@ -3615,7 +3613,7 @@
       <c r="H59" s="79"/>
       <c r="I59" s="79"/>
       <c r="J59" s="79"/>
-      <c r="K59" s="151"/>
+      <c r="K59" s="150"/>
       <c r="L59" s="79"/>
     </row>
     <row r="60" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3645,7 +3643,7 @@
       <c r="H61" s="79"/>
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
-      <c r="K61" s="151"/>
+      <c r="K61" s="150"/>
       <c r="L61" s="79"/>
     </row>
     <row r="62" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3680,15 +3678,15 @@
       <c r="K63" s="89"/>
       <c r="L63" s="89"/>
     </row>
-    <row r="64" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="78" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
-      <c r="E64" s="130" t="s">
-        <v>333</v>
+      <c r="E64" s="276" t="s">
+        <v>339</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3751,16 +3749,16 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="169" t="s">
+      <c r="E68" s="241" t="s">
         <v>340</v>
       </c>
-      <c r="F68" s="193"/>
-      <c r="G68" s="193"/>
-      <c r="H68" s="193"/>
-      <c r="I68" s="193"/>
-      <c r="J68" s="170"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="243"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="137"/>
+      <c r="L68" s="136"/>
     </row>
     <row r="69" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="57"/>
@@ -3823,11 +3821,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="218" t="s">
+      <c r="F72" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="218"/>
-      <c r="H72" s="218"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3842,14 +3840,16 @@
         <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="268" t="s">
-        <v>335</v>
-      </c>
-      <c r="G73" s="268"/>
-      <c r="H73" s="268"/>
+        <v>341</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="F73" s="160" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" s="160"/>
+      <c r="H73" s="160"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3866,7 +3866,7 @@
       <c r="H74" s="79"/>
       <c r="I74" s="79"/>
       <c r="J74" s="79"/>
-      <c r="K74" s="151"/>
+      <c r="K74" s="150"/>
       <c r="L74" s="79"/>
     </row>
     <row r="75" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3882,7 +3882,7 @@
       <c r="H75" s="79"/>
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
-      <c r="K75" s="151"/>
+      <c r="K75" s="150"/>
       <c r="L75" s="79"/>
     </row>
     <row r="76" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3896,7 +3896,7 @@
       <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="79"/>
-      <c r="K76" s="151"/>
+      <c r="K76" s="150"/>
       <c r="L76" s="79"/>
     </row>
     <row r="77" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3912,7 +3912,7 @@
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="79"/>
-      <c r="K77" s="151"/>
+      <c r="K77" s="150"/>
       <c r="L77" s="79"/>
     </row>
     <row r="78" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
       <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="79"/>
-      <c r="K78" s="151"/>
+      <c r="K78" s="150"/>
       <c r="L78" s="79"/>
     </row>
     <row r="79" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
       <c r="H79" s="79"/>
       <c r="I79" s="79"/>
       <c r="J79" s="79"/>
-      <c r="K79" s="151"/>
+      <c r="K79" s="150"/>
       <c r="L79" s="79"/>
     </row>
     <row r="80" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3956,7 +3956,7 @@
       <c r="H80" s="79"/>
       <c r="I80" s="79"/>
       <c r="J80" s="79"/>
-      <c r="K80" s="151"/>
+      <c r="K80" s="150"/>
       <c r="L80" s="79"/>
     </row>
     <row r="81" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3974,21 +3974,21 @@
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
-      <c r="K81" s="151"/>
+      <c r="K81" s="150"/>
       <c r="L81" s="79"/>
     </row>
     <row r="82" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="203" t="s">
+      <c r="D82" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="203"/>
+      <c r="E82" s="231"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
-      <c r="K82" s="151"/>
+      <c r="K82" s="150"/>
       <c r="L82" s="79"/>
     </row>
     <row r="83" spans="1:12" s="96" customFormat="1" ht="36" x14ac:dyDescent="0.3">
@@ -4011,7 +4011,7 @@
       <c r="G83" s="21"/>
       <c r="H83" s="75"/>
       <c r="J83" s="79"/>
-      <c r="K83" s="151"/>
+      <c r="K83" s="150"/>
       <c r="L83" s="79"/>
     </row>
     <row r="84" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -4035,7 +4035,7 @@
       <c r="H84" s="79"/>
       <c r="I84" s="79"/>
       <c r="J84" s="79"/>
-      <c r="K84" s="151"/>
+      <c r="K84" s="150"/>
       <c r="L84" s="79"/>
     </row>
     <row r="85" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
       <c r="H85" s="79"/>
       <c r="I85" s="79"/>
       <c r="J85" s="79"/>
-      <c r="K85" s="151"/>
+      <c r="K85" s="150"/>
       <c r="L85" s="79"/>
     </row>
     <row r="86" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -4065,23 +4065,23 @@
       <c r="H86" s="79"/>
       <c r="I86" s="79"/>
       <c r="J86" s="79"/>
-      <c r="K86" s="151"/>
+      <c r="K86" s="150"/>
       <c r="L86" s="79"/>
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="270" t="s">
+      <c r="B87" s="164" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="270"/>
-      <c r="D87" s="270"/>
-      <c r="E87" s="270"/>
-      <c r="F87" s="270"/>
-      <c r="G87" s="270"/>
-      <c r="H87" s="270"/>
-      <c r="I87" s="270"/>
-      <c r="J87" s="270"/>
-      <c r="K87" s="153"/>
+      <c r="C87" s="164"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="164"/>
+      <c r="G87" s="164"/>
+      <c r="H87" s="164"/>
+      <c r="I87" s="164"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="152"/>
       <c r="L87" s="79"/>
     </row>
     <row r="88" spans="1:12" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,7 +4095,7 @@
       <c r="H88" s="79"/>
       <c r="I88" s="79"/>
       <c r="J88" s="79"/>
-      <c r="K88" s="151"/>
+      <c r="K88" s="150"/>
       <c r="L88" s="79"/>
     </row>
     <row r="89" spans="1:12" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
       <c r="H89" s="79"/>
       <c r="I89" s="79"/>
       <c r="J89" s="79"/>
-      <c r="K89" s="151"/>
+      <c r="K89" s="150"/>
       <c r="L89" s="79"/>
     </row>
     <row r="90" spans="1:12" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4139,7 +4139,7 @@
       <c r="H91" s="79"/>
       <c r="I91" s="79"/>
       <c r="J91" s="79"/>
-      <c r="K91" s="151"/>
+      <c r="K91" s="150"/>
       <c r="L91" s="79"/>
     </row>
     <row r="92" spans="1:12" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4157,7 +4157,7 @@
       <c r="H92" s="78"/>
       <c r="I92" s="78"/>
       <c r="J92" s="78"/>
-      <c r="K92" s="150"/>
+      <c r="K92" s="149"/>
       <c r="L92" s="78"/>
     </row>
     <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4171,7 +4171,7 @@
       <c r="H93" s="78"/>
       <c r="I93" s="78"/>
       <c r="J93" s="78"/>
-      <c r="K93" s="150"/>
+      <c r="K93" s="149"/>
       <c r="L93" s="78"/>
     </row>
     <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="78"/>
-      <c r="K96" s="150"/>
+      <c r="K96" s="149"/>
       <c r="L96" s="105"/>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4237,7 +4237,7 @@
       <c r="H97" s="78"/>
       <c r="I97" s="78"/>
       <c r="J97" s="78"/>
-      <c r="K97" s="150"/>
+      <c r="K97" s="149"/>
       <c r="L97" s="78"/>
     </row>
     <row r="98" spans="1:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4247,15 +4247,15 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="272" t="s">
+      <c r="E98" s="169" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="273"/>
+      <c r="F98" s="170"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
       <c r="J98" s="78"/>
-      <c r="K98" s="150"/>
+      <c r="K98" s="149"/>
       <c r="L98" s="78"/>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4411,7 +4411,7 @@
       <c r="H108" s="24"/>
       <c r="I108" s="79"/>
       <c r="J108" s="79"/>
-      <c r="K108" s="151"/>
+      <c r="K108" s="150"/>
       <c r="L108" s="79"/>
     </row>
     <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4425,23 +4425,23 @@
       <c r="H109" s="24"/>
       <c r="I109" s="79"/>
       <c r="J109" s="79"/>
-      <c r="K109" s="151"/>
+      <c r="K109" s="150"/>
       <c r="L109" s="79"/>
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="255" t="s">
+      <c r="B110" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="255"/>
-      <c r="D110" s="255"/>
-      <c r="E110" s="255"/>
-      <c r="F110" s="256"/>
+      <c r="C110" s="215"/>
+      <c r="D110" s="215"/>
+      <c r="E110" s="215"/>
+      <c r="F110" s="216"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
       <c r="J110" s="79"/>
-      <c r="K110" s="151"/>
+      <c r="K110" s="150"/>
       <c r="L110" s="79"/>
     </row>
     <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4451,27 +4451,27 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="257"/>
-      <c r="H111" s="257"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="217"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
-      <c r="K111" s="151"/>
+      <c r="K111" s="150"/>
       <c r="L111" s="79"/>
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="255" t="s">
+      <c r="B112" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="255"/>
-      <c r="D112" s="255"/>
-      <c r="E112" s="255"/>
-      <c r="F112" s="256"/>
+      <c r="C112" s="215"/>
+      <c r="D112" s="215"/>
+      <c r="E112" s="215"/>
+      <c r="F112" s="216"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
       <c r="J112" s="79"/>
-      <c r="K112" s="151"/>
+      <c r="K112" s="150"/>
       <c r="L112" s="79"/>
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
       <c r="H113" s="79"/>
       <c r="I113" s="79"/>
       <c r="J113" s="79"/>
-      <c r="K113" s="151"/>
+      <c r="K113" s="150"/>
       <c r="L113" s="79"/>
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4598,47 +4598,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="258" t="s">
+      <c r="B121" s="218" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="259"/>
-      <c r="D121" s="259"/>
-      <c r="E121" s="259"/>
-      <c r="F121" s="259"/>
-      <c r="G121" s="259"/>
-      <c r="H121" s="259"/>
-      <c r="I121" s="259"/>
-      <c r="J121" s="259"/>
-      <c r="K121" s="259"/>
-      <c r="L121" s="260"/>
+      <c r="C121" s="219"/>
+      <c r="D121" s="219"/>
+      <c r="E121" s="219"/>
+      <c r="F121" s="219"/>
+      <c r="G121" s="219"/>
+      <c r="H121" s="219"/>
+      <c r="I121" s="219"/>
+      <c r="J121" s="219"/>
+      <c r="K121" s="219"/>
+      <c r="L121" s="220"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="261"/>
-      <c r="C122" s="262"/>
-      <c r="D122" s="262"/>
-      <c r="E122" s="262"/>
-      <c r="F122" s="262"/>
-      <c r="G122" s="262"/>
-      <c r="H122" s="262"/>
-      <c r="I122" s="262"/>
-      <c r="J122" s="262"/>
-      <c r="K122" s="262"/>
-      <c r="L122" s="263"/>
+      <c r="B122" s="171"/>
+      <c r="C122" s="172"/>
+      <c r="D122" s="172"/>
+      <c r="E122" s="172"/>
+      <c r="F122" s="172"/>
+      <c r="G122" s="172"/>
+      <c r="H122" s="172"/>
+      <c r="I122" s="172"/>
+      <c r="J122" s="172"/>
+      <c r="K122" s="172"/>
+      <c r="L122" s="173"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="264"/>
-      <c r="C123" s="265"/>
-      <c r="D123" s="265"/>
-      <c r="E123" s="265"/>
-      <c r="F123" s="265"/>
-      <c r="G123" s="265"/>
-      <c r="H123" s="265"/>
-      <c r="I123" s="265"/>
-      <c r="J123" s="265"/>
-      <c r="K123" s="265"/>
-      <c r="L123" s="266"/>
+      <c r="B123" s="221"/>
+      <c r="C123" s="222"/>
+      <c r="D123" s="222"/>
+      <c r="E123" s="222"/>
+      <c r="F123" s="222"/>
+      <c r="G123" s="222"/>
+      <c r="H123" s="222"/>
+      <c r="I123" s="222"/>
+      <c r="J123" s="222"/>
+      <c r="K123" s="222"/>
+      <c r="L123" s="223"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="248" t="s">
+      <c r="B126" s="208" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="249"/>
-      <c r="D126" s="249"/>
-      <c r="E126" s="249"/>
-      <c r="F126" s="249"/>
-      <c r="G126" s="249"/>
-      <c r="H126" s="249"/>
-      <c r="I126" s="249"/>
-      <c r="J126" s="249"/>
-      <c r="K126" s="249"/>
-      <c r="L126" s="250"/>
+      <c r="C126" s="209"/>
+      <c r="D126" s="209"/>
+      <c r="E126" s="209"/>
+      <c r="F126" s="209"/>
+      <c r="G126" s="209"/>
+      <c r="H126" s="209"/>
+      <c r="I126" s="209"/>
+      <c r="J126" s="209"/>
+      <c r="K126" s="209"/>
+      <c r="L126" s="210"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4718,19 +4718,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="251" t="s">
+      <c r="B129" s="211" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="252"/>
-      <c r="D129" s="252"/>
-      <c r="E129" s="252"/>
-      <c r="F129" s="252"/>
-      <c r="G129" s="252"/>
-      <c r="H129" s="252"/>
-      <c r="I129" s="252"/>
-      <c r="J129" s="252"/>
-      <c r="K129" s="252"/>
-      <c r="L129" s="253"/>
+      <c r="C129" s="212"/>
+      <c r="D129" s="212"/>
+      <c r="E129" s="212"/>
+      <c r="F129" s="212"/>
+      <c r="G129" s="212"/>
+      <c r="H129" s="212"/>
+      <c r="I129" s="212"/>
+      <c r="J129" s="212"/>
+      <c r="K129" s="212"/>
+      <c r="L129" s="213"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4929,19 +4929,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="254" t="s">
+      <c r="B143" s="214" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="254"/>
-      <c r="D143" s="254"/>
-      <c r="E143" s="254"/>
-      <c r="F143" s="254"/>
-      <c r="G143" s="254"/>
-      <c r="H143" s="254"/>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="254"/>
-      <c r="L143" s="254"/>
+      <c r="C143" s="214"/>
+      <c r="D143" s="214"/>
+      <c r="E143" s="214"/>
+      <c r="F143" s="214"/>
+      <c r="G143" s="214"/>
+      <c r="H143" s="214"/>
+      <c r="I143" s="214"/>
+      <c r="J143" s="214"/>
+      <c r="K143" s="214"/>
+      <c r="L143" s="214"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4959,11 +4959,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="172" t="s">
+      <c r="B145" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="172"/>
-      <c r="D145" s="172"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="161"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4987,11 +4987,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="172" t="s">
+      <c r="B147" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="172"/>
-      <c r="D147" s="172"/>
+      <c r="C147" s="161"/>
+      <c r="D147" s="161"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5015,11 +5015,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="172" t="s">
+      <c r="B149" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="172"/>
-      <c r="D149" s="172"/>
+      <c r="C149" s="161"/>
+      <c r="D149" s="161"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5041,12 +5041,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="172" t="s">
+      <c r="B151" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="172"/>
-      <c r="D151" s="172"/>
-      <c r="E151" s="172"/>
+      <c r="C151" s="161"/>
+      <c r="D151" s="161"/>
+      <c r="E151" s="161"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="172" t="s">
+      <c r="B153" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="172"/>
-      <c r="D153" s="172"/>
-      <c r="E153" s="172"/>
-      <c r="F153" s="173"/>
+      <c r="C153" s="161"/>
+      <c r="D153" s="161"/>
+      <c r="E153" s="161"/>
+      <c r="F153" s="162"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5203,19 +5203,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="274" t="s">
+      <c r="B162" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="275"/>
-      <c r="D162" s="275"/>
-      <c r="E162" s="275"/>
-      <c r="F162" s="275"/>
-      <c r="G162" s="275"/>
-      <c r="H162" s="275"/>
-      <c r="I162" s="275"/>
-      <c r="J162" s="275"/>
-      <c r="K162" s="275"/>
-      <c r="L162" s="276"/>
+      <c r="C162" s="175"/>
+      <c r="D162" s="175"/>
+      <c r="E162" s="175"/>
+      <c r="F162" s="175"/>
+      <c r="G162" s="175"/>
+      <c r="H162" s="175"/>
+      <c r="I162" s="175"/>
+      <c r="J162" s="175"/>
+      <c r="K162" s="175"/>
+      <c r="L162" s="176"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5433,12 +5433,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="172" t="s">
+      <c r="B179" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="172"/>
-      <c r="D179" s="172"/>
-      <c r="E179" s="172"/>
+      <c r="C179" s="161"/>
+      <c r="D179" s="161"/>
+      <c r="E179" s="161"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5465,13 +5465,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="172" t="s">
+      <c r="B181" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="172"/>
-      <c r="D181" s="172"/>
-      <c r="E181" s="172"/>
-      <c r="F181" s="173"/>
+      <c r="C181" s="161"/>
+      <c r="D181" s="161"/>
+      <c r="E181" s="161"/>
+      <c r="F181" s="162"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="172" t="s">
+      <c r="B185" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="172"/>
-      <c r="D185" s="172"/>
-      <c r="E185" s="172"/>
-      <c r="F185" s="173"/>
+      <c r="C185" s="161"/>
+      <c r="D185" s="161"/>
+      <c r="E185" s="161"/>
+      <c r="F185" s="162"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5644,79 +5644,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="175" t="s">
+      <c r="B193" s="177" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="176"/>
-      <c r="D193" s="176"/>
-      <c r="E193" s="176"/>
-      <c r="F193" s="176"/>
-      <c r="G193" s="176"/>
-      <c r="H193" s="176"/>
-      <c r="I193" s="176"/>
-      <c r="J193" s="176"/>
-      <c r="K193" s="176"/>
-      <c r="L193" s="177"/>
+      <c r="C193" s="178"/>
+      <c r="D193" s="178"/>
+      <c r="E193" s="178"/>
+      <c r="F193" s="178"/>
+      <c r="G193" s="178"/>
+      <c r="H193" s="178"/>
+      <c r="I193" s="178"/>
+      <c r="J193" s="178"/>
+      <c r="K193" s="178"/>
+      <c r="L193" s="179"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="178"/>
-      <c r="C194" s="179"/>
-      <c r="D194" s="179"/>
-      <c r="E194" s="179"/>
-      <c r="F194" s="179"/>
-      <c r="G194" s="179"/>
-      <c r="H194" s="179"/>
-      <c r="I194" s="179"/>
-      <c r="J194" s="179"/>
-      <c r="K194" s="179"/>
-      <c r="L194" s="180"/>
+      <c r="B194" s="180"/>
+      <c r="C194" s="181"/>
+      <c r="D194" s="181"/>
+      <c r="E194" s="181"/>
+      <c r="F194" s="181"/>
+      <c r="G194" s="181"/>
+      <c r="H194" s="181"/>
+      <c r="I194" s="181"/>
+      <c r="J194" s="181"/>
+      <c r="K194" s="181"/>
+      <c r="L194" s="182"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="178"/>
-      <c r="C195" s="179"/>
-      <c r="D195" s="179"/>
-      <c r="E195" s="179"/>
-      <c r="F195" s="179"/>
-      <c r="G195" s="179"/>
-      <c r="H195" s="179"/>
-      <c r="I195" s="179"/>
-      <c r="J195" s="179"/>
-      <c r="K195" s="179"/>
-      <c r="L195" s="180"/>
+      <c r="B195" s="180"/>
+      <c r="C195" s="181"/>
+      <c r="D195" s="181"/>
+      <c r="E195" s="181"/>
+      <c r="F195" s="181"/>
+      <c r="G195" s="181"/>
+      <c r="H195" s="181"/>
+      <c r="I195" s="181"/>
+      <c r="J195" s="181"/>
+      <c r="K195" s="181"/>
+      <c r="L195" s="182"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="178"/>
-      <c r="C196" s="179"/>
-      <c r="D196" s="179"/>
-      <c r="E196" s="179"/>
-      <c r="F196" s="179"/>
-      <c r="G196" s="179"/>
-      <c r="H196" s="179"/>
-      <c r="I196" s="179"/>
-      <c r="J196" s="179"/>
-      <c r="K196" s="179"/>
-      <c r="L196" s="180"/>
+      <c r="B196" s="180"/>
+      <c r="C196" s="181"/>
+      <c r="D196" s="181"/>
+      <c r="E196" s="181"/>
+      <c r="F196" s="181"/>
+      <c r="G196" s="181"/>
+      <c r="H196" s="181"/>
+      <c r="I196" s="181"/>
+      <c r="J196" s="181"/>
+      <c r="K196" s="181"/>
+      <c r="L196" s="182"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="181"/>
-      <c r="C197" s="182"/>
-      <c r="D197" s="182"/>
-      <c r="E197" s="182"/>
-      <c r="F197" s="182"/>
-      <c r="G197" s="182"/>
-      <c r="H197" s="182"/>
-      <c r="I197" s="182"/>
-      <c r="J197" s="182"/>
-      <c r="K197" s="182"/>
-      <c r="L197" s="183"/>
+      <c r="B197" s="183"/>
+      <c r="C197" s="184"/>
+      <c r="D197" s="184"/>
+      <c r="E197" s="184"/>
+      <c r="F197" s="184"/>
+      <c r="G197" s="184"/>
+      <c r="H197" s="184"/>
+      <c r="I197" s="184"/>
+      <c r="J197" s="184"/>
+      <c r="K197" s="184"/>
+      <c r="L197" s="185"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5753,79 +5753,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="175" t="s">
+      <c r="B200" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="176"/>
-      <c r="D200" s="176"/>
-      <c r="E200" s="176"/>
-      <c r="F200" s="176"/>
-      <c r="G200" s="176"/>
-      <c r="H200" s="176"/>
-      <c r="I200" s="176"/>
-      <c r="J200" s="176"/>
-      <c r="K200" s="176"/>
-      <c r="L200" s="177"/>
+      <c r="C200" s="178"/>
+      <c r="D200" s="178"/>
+      <c r="E200" s="178"/>
+      <c r="F200" s="178"/>
+      <c r="G200" s="178"/>
+      <c r="H200" s="178"/>
+      <c r="I200" s="178"/>
+      <c r="J200" s="178"/>
+      <c r="K200" s="178"/>
+      <c r="L200" s="179"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="178"/>
-      <c r="C201" s="179"/>
-      <c r="D201" s="179"/>
-      <c r="E201" s="179"/>
-      <c r="F201" s="179"/>
-      <c r="G201" s="179"/>
-      <c r="H201" s="179"/>
-      <c r="I201" s="179"/>
-      <c r="J201" s="179"/>
-      <c r="K201" s="179"/>
-      <c r="L201" s="180"/>
+      <c r="B201" s="180"/>
+      <c r="C201" s="181"/>
+      <c r="D201" s="181"/>
+      <c r="E201" s="181"/>
+      <c r="F201" s="181"/>
+      <c r="G201" s="181"/>
+      <c r="H201" s="181"/>
+      <c r="I201" s="181"/>
+      <c r="J201" s="181"/>
+      <c r="K201" s="181"/>
+      <c r="L201" s="182"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="178"/>
-      <c r="C202" s="179"/>
-      <c r="D202" s="179"/>
-      <c r="E202" s="179"/>
-      <c r="F202" s="179"/>
-      <c r="G202" s="179"/>
-      <c r="H202" s="179"/>
-      <c r="I202" s="179"/>
-      <c r="J202" s="179"/>
-      <c r="K202" s="179"/>
-      <c r="L202" s="180"/>
+      <c r="B202" s="180"/>
+      <c r="C202" s="181"/>
+      <c r="D202" s="181"/>
+      <c r="E202" s="181"/>
+      <c r="F202" s="181"/>
+      <c r="G202" s="181"/>
+      <c r="H202" s="181"/>
+      <c r="I202" s="181"/>
+      <c r="J202" s="181"/>
+      <c r="K202" s="181"/>
+      <c r="L202" s="182"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="178"/>
-      <c r="C203" s="179"/>
-      <c r="D203" s="179"/>
-      <c r="E203" s="179"/>
-      <c r="F203" s="179"/>
-      <c r="G203" s="179"/>
-      <c r="H203" s="179"/>
-      <c r="I203" s="179"/>
-      <c r="J203" s="179"/>
-      <c r="K203" s="179"/>
-      <c r="L203" s="180"/>
+      <c r="B203" s="180"/>
+      <c r="C203" s="181"/>
+      <c r="D203" s="181"/>
+      <c r="E203" s="181"/>
+      <c r="F203" s="181"/>
+      <c r="G203" s="181"/>
+      <c r="H203" s="181"/>
+      <c r="I203" s="181"/>
+      <c r="J203" s="181"/>
+      <c r="K203" s="181"/>
+      <c r="L203" s="182"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="181"/>
-      <c r="C204" s="182"/>
-      <c r="D204" s="182"/>
-      <c r="E204" s="182"/>
-      <c r="F204" s="182"/>
-      <c r="G204" s="182"/>
-      <c r="H204" s="182"/>
-      <c r="I204" s="182"/>
-      <c r="J204" s="182"/>
-      <c r="K204" s="182"/>
-      <c r="L204" s="183"/>
+      <c r="B204" s="183"/>
+      <c r="C204" s="184"/>
+      <c r="D204" s="184"/>
+      <c r="E204" s="184"/>
+      <c r="F204" s="184"/>
+      <c r="G204" s="184"/>
+      <c r="H204" s="184"/>
+      <c r="I204" s="184"/>
+      <c r="J204" s="184"/>
+      <c r="K204" s="184"/>
+      <c r="L204" s="185"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5972,49 +5972,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="239" t="s">
+      <c r="B214" s="199" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="240"/>
-      <c r="D214" s="240"/>
-      <c r="E214" s="240"/>
-      <c r="F214" s="240"/>
-      <c r="G214" s="240"/>
-      <c r="H214" s="240"/>
-      <c r="I214" s="240"/>
-      <c r="J214" s="240"/>
-      <c r="K214" s="240"/>
-      <c r="L214" s="241"/>
+      <c r="C214" s="200"/>
+      <c r="D214" s="200"/>
+      <c r="E214" s="200"/>
+      <c r="F214" s="200"/>
+      <c r="G214" s="200"/>
+      <c r="H214" s="200"/>
+      <c r="I214" s="200"/>
+      <c r="J214" s="200"/>
+      <c r="K214" s="200"/>
+      <c r="L214" s="201"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="242"/>
-      <c r="C215" s="243"/>
-      <c r="D215" s="243"/>
-      <c r="E215" s="243"/>
-      <c r="F215" s="243"/>
-      <c r="G215" s="243"/>
-      <c r="H215" s="243"/>
-      <c r="I215" s="243"/>
-      <c r="J215" s="243"/>
-      <c r="K215" s="243"/>
-      <c r="L215" s="244"/>
+      <c r="B215" s="202"/>
+      <c r="C215" s="203"/>
+      <c r="D215" s="203"/>
+      <c r="E215" s="203"/>
+      <c r="F215" s="203"/>
+      <c r="G215" s="203"/>
+      <c r="H215" s="203"/>
+      <c r="I215" s="203"/>
+      <c r="J215" s="203"/>
+      <c r="K215" s="203"/>
+      <c r="L215" s="204"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="245"/>
-      <c r="C216" s="246"/>
-      <c r="D216" s="246"/>
-      <c r="E216" s="246"/>
-      <c r="F216" s="246"/>
-      <c r="G216" s="246"/>
-      <c r="H216" s="246"/>
-      <c r="I216" s="246"/>
-      <c r="J216" s="246"/>
-      <c r="K216" s="246"/>
-      <c r="L216" s="247"/>
+      <c r="B216" s="205"/>
+      <c r="C216" s="206"/>
+      <c r="D216" s="206"/>
+      <c r="E216" s="206"/>
+      <c r="F216" s="206"/>
+      <c r="G216" s="206"/>
+      <c r="H216" s="206"/>
+      <c r="I216" s="206"/>
+      <c r="J216" s="206"/>
+      <c r="K216" s="206"/>
+      <c r="L216" s="207"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6049,10 +6049,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="172" t="s">
+      <c r="B219" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="172"/>
+      <c r="C219" s="161"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6177,19 +6177,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="261" t="s">
+      <c r="B227" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="262"/>
-      <c r="D227" s="262"/>
-      <c r="E227" s="262"/>
-      <c r="F227" s="262"/>
-      <c r="G227" s="262"/>
-      <c r="H227" s="262"/>
-      <c r="I227" s="262"/>
-      <c r="J227" s="262"/>
-      <c r="K227" s="262"/>
-      <c r="L227" s="263"/>
+      <c r="C227" s="172"/>
+      <c r="D227" s="172"/>
+      <c r="E227" s="172"/>
+      <c r="F227" s="172"/>
+      <c r="G227" s="172"/>
+      <c r="H227" s="172"/>
+      <c r="I227" s="172"/>
+      <c r="J227" s="172"/>
+      <c r="K227" s="172"/>
+      <c r="L227" s="173"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6298,51 +6298,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="184" t="s">
+      <c r="B235" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="185"/>
-      <c r="D235" s="185"/>
-      <c r="E235" s="185"/>
-      <c r="F235" s="185"/>
-      <c r="G235" s="185"/>
-      <c r="H235" s="185"/>
-      <c r="I235" s="185"/>
-      <c r="J235" s="185"/>
-      <c r="K235" s="185"/>
-      <c r="L235" s="186"/>
+      <c r="C235" s="268"/>
+      <c r="D235" s="268"/>
+      <c r="E235" s="268"/>
+      <c r="F235" s="268"/>
+      <c r="G235" s="268"/>
+      <c r="H235" s="268"/>
+      <c r="I235" s="268"/>
+      <c r="J235" s="268"/>
+      <c r="K235" s="268"/>
+      <c r="L235" s="269"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="187"/>
-      <c r="C236" s="188"/>
-      <c r="D236" s="188"/>
-      <c r="E236" s="188"/>
-      <c r="F236" s="188"/>
-      <c r="G236" s="188"/>
-      <c r="H236" s="188"/>
-      <c r="I236" s="188"/>
-      <c r="J236" s="188"/>
-      <c r="K236" s="188"/>
-      <c r="L236" s="189"/>
+      <c r="B236" s="270"/>
+      <c r="C236" s="271"/>
+      <c r="D236" s="271"/>
+      <c r="E236" s="271"/>
+      <c r="F236" s="271"/>
+      <c r="G236" s="271"/>
+      <c r="H236" s="271"/>
+      <c r="I236" s="271"/>
+      <c r="J236" s="271"/>
+      <c r="K236" s="271"/>
+      <c r="L236" s="272"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="190"/>
-      <c r="C237" s="191"/>
-      <c r="D237" s="191"/>
-      <c r="E237" s="191"/>
-      <c r="F237" s="191"/>
-      <c r="G237" s="191"/>
-      <c r="H237" s="191"/>
-      <c r="I237" s="191"/>
-      <c r="J237" s="191"/>
-      <c r="K237" s="191"/>
-      <c r="L237" s="192"/>
+      <c r="B237" s="273"/>
+      <c r="C237" s="274"/>
+      <c r="D237" s="274"/>
+      <c r="E237" s="274"/>
+      <c r="F237" s="274"/>
+      <c r="G237" s="274"/>
+      <c r="H237" s="274"/>
+      <c r="I237" s="274"/>
+      <c r="J237" s="274"/>
+      <c r="K237" s="274"/>
+      <c r="L237" s="275"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6457,35 +6457,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="270" t="s">
+      <c r="B245" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="270"/>
-      <c r="D245" s="270"/>
-      <c r="E245" s="270"/>
-      <c r="F245" s="270"/>
-      <c r="G245" s="270"/>
-      <c r="H245" s="270"/>
-      <c r="I245" s="270"/>
-      <c r="J245" s="270"/>
-      <c r="K245" s="270"/>
-      <c r="L245" s="270"/>
+      <c r="C245" s="164"/>
+      <c r="D245" s="164"/>
+      <c r="E245" s="164"/>
+      <c r="F245" s="164"/>
+      <c r="G245" s="164"/>
+      <c r="H245" s="164"/>
+      <c r="I245" s="164"/>
+      <c r="J245" s="164"/>
+      <c r="K245" s="164"/>
+      <c r="L245" s="164"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="270" t="s">
+      <c r="B246" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="270"/>
-      <c r="D246" s="270"/>
-      <c r="E246" s="270"/>
-      <c r="F246" s="270"/>
-      <c r="G246" s="270"/>
-      <c r="H246" s="270"/>
-      <c r="I246" s="270"/>
-      <c r="J246" s="270"/>
-      <c r="K246" s="270"/>
-      <c r="L246" s="270"/>
+      <c r="C246" s="164"/>
+      <c r="D246" s="164"/>
+      <c r="E246" s="164"/>
+      <c r="F246" s="164"/>
+      <c r="G246" s="164"/>
+      <c r="H246" s="164"/>
+      <c r="I246" s="164"/>
+      <c r="J246" s="164"/>
+      <c r="K246" s="164"/>
+      <c r="L246" s="164"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6691,83 +6691,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="175" t="s">
+      <c r="B260" s="177" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="176"/>
-      <c r="D260" s="176"/>
-      <c r="E260" s="176"/>
-      <c r="F260" s="176"/>
-      <c r="G260" s="176"/>
-      <c r="H260" s="176"/>
-      <c r="I260" s="176"/>
-      <c r="J260" s="176"/>
-      <c r="K260" s="176"/>
-      <c r="L260" s="177"/>
+      <c r="C260" s="178"/>
+      <c r="D260" s="178"/>
+      <c r="E260" s="178"/>
+      <c r="F260" s="178"/>
+      <c r="G260" s="178"/>
+      <c r="H260" s="178"/>
+      <c r="I260" s="178"/>
+      <c r="J260" s="178"/>
+      <c r="K260" s="178"/>
+      <c r="L260" s="179"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="178"/>
-      <c r="C261" s="179"/>
-      <c r="D261" s="179"/>
-      <c r="E261" s="179"/>
-      <c r="F261" s="179"/>
-      <c r="G261" s="179"/>
-      <c r="H261" s="179"/>
-      <c r="I261" s="179"/>
-      <c r="J261" s="179"/>
-      <c r="K261" s="179"/>
-      <c r="L261" s="180"/>
+      <c r="B261" s="180"/>
+      <c r="C261" s="181"/>
+      <c r="D261" s="181"/>
+      <c r="E261" s="181"/>
+      <c r="F261" s="181"/>
+      <c r="G261" s="181"/>
+      <c r="H261" s="181"/>
+      <c r="I261" s="181"/>
+      <c r="J261" s="181"/>
+      <c r="K261" s="181"/>
+      <c r="L261" s="182"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="178"/>
-      <c r="C262" s="179"/>
-      <c r="D262" s="179"/>
-      <c r="E262" s="179"/>
-      <c r="F262" s="179"/>
-      <c r="G262" s="179"/>
-      <c r="H262" s="179"/>
-      <c r="I262" s="179"/>
-      <c r="J262" s="179"/>
-      <c r="K262" s="179"/>
-      <c r="L262" s="180"/>
+      <c r="B262" s="180"/>
+      <c r="C262" s="181"/>
+      <c r="D262" s="181"/>
+      <c r="E262" s="181"/>
+      <c r="F262" s="181"/>
+      <c r="G262" s="181"/>
+      <c r="H262" s="181"/>
+      <c r="I262" s="181"/>
+      <c r="J262" s="181"/>
+      <c r="K262" s="181"/>
+      <c r="L262" s="182"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="178"/>
-      <c r="C263" s="179"/>
-      <c r="D263" s="179"/>
-      <c r="E263" s="179"/>
-      <c r="F263" s="179"/>
-      <c r="G263" s="179"/>
-      <c r="H263" s="179"/>
-      <c r="I263" s="179"/>
-      <c r="J263" s="179"/>
-      <c r="K263" s="179"/>
-      <c r="L263" s="180"/>
+      <c r="B263" s="180"/>
+      <c r="C263" s="181"/>
+      <c r="D263" s="181"/>
+      <c r="E263" s="181"/>
+      <c r="F263" s="181"/>
+      <c r="G263" s="181"/>
+      <c r="H263" s="181"/>
+      <c r="I263" s="181"/>
+      <c r="J263" s="181"/>
+      <c r="K263" s="181"/>
+      <c r="L263" s="182"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="181"/>
-      <c r="C264" s="182"/>
-      <c r="D264" s="182"/>
-      <c r="E264" s="182"/>
-      <c r="F264" s="182"/>
-      <c r="G264" s="182"/>
-      <c r="H264" s="182"/>
-      <c r="I264" s="182"/>
-      <c r="J264" s="182"/>
-      <c r="K264" s="182"/>
-      <c r="L264" s="183"/>
+      <c r="B264" s="183"/>
+      <c r="C264" s="184"/>
+      <c r="D264" s="184"/>
+      <c r="E264" s="184"/>
+      <c r="F264" s="184"/>
+      <c r="G264" s="184"/>
+      <c r="H264" s="184"/>
+      <c r="I264" s="184"/>
+      <c r="J264" s="184"/>
+      <c r="K264" s="184"/>
+      <c r="L264" s="185"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6823,28 +6823,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="218" t="s">
+      <c r="B268" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="218"/>
-      <c r="D268" s="212" t="s">
+      <c r="C268" s="159"/>
+      <c r="D268" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="213"/>
-      <c r="F268" s="213"/>
-      <c r="G268" s="213"/>
-      <c r="H268" s="213"/>
-      <c r="I268" s="213"/>
-      <c r="J268" s="213"/>
-      <c r="K268" s="213"/>
-      <c r="L268" s="214"/>
+      <c r="E268" s="167"/>
+      <c r="F268" s="167"/>
+      <c r="G268" s="167"/>
+      <c r="H268" s="167"/>
+      <c r="I268" s="167"/>
+      <c r="J268" s="167"/>
+      <c r="K268" s="167"/>
+      <c r="L268" s="168"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="269"/>
-      <c r="C269" s="269"/>
+      <c r="B269" s="163"/>
+      <c r="C269" s="163"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6852,15 +6852,15 @@
       <c r="H269" s="72"/>
       <c r="I269" s="72"/>
       <c r="J269" s="72"/>
-      <c r="K269" s="146"/>
+      <c r="K269" s="145"/>
       <c r="L269" s="71"/>
       <c r="M269" s="21"/>
       <c r="N269" s="2"/>
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="269"/>
-      <c r="C270" s="269"/>
+      <c r="B270" s="163"/>
+      <c r="C270" s="163"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6868,15 +6868,15 @@
       <c r="H270" s="72"/>
       <c r="I270" s="72"/>
       <c r="J270" s="72"/>
-      <c r="K270" s="146"/>
+      <c r="K270" s="145"/>
       <c r="L270" s="71"/>
       <c r="M270" s="12"/>
       <c r="N270" s="2"/>
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="269"/>
-      <c r="C271" s="269"/>
+      <c r="B271" s="163"/>
+      <c r="C271" s="163"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6884,15 +6884,15 @@
       <c r="H271" s="72"/>
       <c r="I271" s="72"/>
       <c r="J271" s="72"/>
-      <c r="K271" s="146"/>
+      <c r="K271" s="145"/>
       <c r="L271" s="71"/>
       <c r="M271" s="12"/>
       <c r="N271" s="2"/>
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="269"/>
-      <c r="C272" s="269"/>
+      <c r="B272" s="163"/>
+      <c r="C272" s="163"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6900,7 +6900,7 @@
       <c r="H272" s="72"/>
       <c r="I272" s="72"/>
       <c r="J272" s="72"/>
-      <c r="K272" s="146"/>
+      <c r="K272" s="145"/>
       <c r="L272" s="71"/>
       <c r="M272" s="12"/>
       <c r="N272" s="2"/>
@@ -6957,83 +6957,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="271" t="s">
+      <c r="B276" s="165" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="271"/>
-      <c r="D276" s="271"/>
-      <c r="E276" s="271"/>
-      <c r="F276" s="271"/>
-      <c r="G276" s="271"/>
-      <c r="H276" s="271"/>
-      <c r="I276" s="271"/>
-      <c r="J276" s="271"/>
-      <c r="K276" s="271"/>
-      <c r="L276" s="271"/>
+      <c r="C276" s="165"/>
+      <c r="D276" s="165"/>
+      <c r="E276" s="165"/>
+      <c r="F276" s="165"/>
+      <c r="G276" s="165"/>
+      <c r="H276" s="165"/>
+      <c r="I276" s="165"/>
+      <c r="J276" s="165"/>
+      <c r="K276" s="165"/>
+      <c r="L276" s="165"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="271"/>
-      <c r="C277" s="271"/>
-      <c r="D277" s="271"/>
-      <c r="E277" s="271"/>
-      <c r="F277" s="271"/>
-      <c r="G277" s="271"/>
-      <c r="H277" s="271"/>
-      <c r="I277" s="271"/>
-      <c r="J277" s="271"/>
-      <c r="K277" s="271"/>
-      <c r="L277" s="271"/>
+      <c r="B277" s="165"/>
+      <c r="C277" s="165"/>
+      <c r="D277" s="165"/>
+      <c r="E277" s="165"/>
+      <c r="F277" s="165"/>
+      <c r="G277" s="165"/>
+      <c r="H277" s="165"/>
+      <c r="I277" s="165"/>
+      <c r="J277" s="165"/>
+      <c r="K277" s="165"/>
+      <c r="L277" s="165"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="271"/>
-      <c r="C278" s="271"/>
-      <c r="D278" s="271"/>
-      <c r="E278" s="271"/>
-      <c r="F278" s="271"/>
-      <c r="G278" s="271"/>
-      <c r="H278" s="271"/>
-      <c r="I278" s="271"/>
-      <c r="J278" s="271"/>
-      <c r="K278" s="271"/>
-      <c r="L278" s="271"/>
+      <c r="B278" s="165"/>
+      <c r="C278" s="165"/>
+      <c r="D278" s="165"/>
+      <c r="E278" s="165"/>
+      <c r="F278" s="165"/>
+      <c r="G278" s="165"/>
+      <c r="H278" s="165"/>
+      <c r="I278" s="165"/>
+      <c r="J278" s="165"/>
+      <c r="K278" s="165"/>
+      <c r="L278" s="165"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="271"/>
-      <c r="C279" s="271"/>
-      <c r="D279" s="271"/>
-      <c r="E279" s="271"/>
-      <c r="F279" s="271"/>
-      <c r="G279" s="271"/>
-      <c r="H279" s="271"/>
-      <c r="I279" s="271"/>
-      <c r="J279" s="271"/>
-      <c r="K279" s="271"/>
-      <c r="L279" s="271"/>
+      <c r="B279" s="165"/>
+      <c r="C279" s="165"/>
+      <c r="D279" s="165"/>
+      <c r="E279" s="165"/>
+      <c r="F279" s="165"/>
+      <c r="G279" s="165"/>
+      <c r="H279" s="165"/>
+      <c r="I279" s="165"/>
+      <c r="J279" s="165"/>
+      <c r="K279" s="165"/>
+      <c r="L279" s="165"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="271"/>
-      <c r="C280" s="271"/>
-      <c r="D280" s="271"/>
-      <c r="E280" s="271"/>
-      <c r="F280" s="271"/>
-      <c r="G280" s="271"/>
-      <c r="H280" s="271"/>
-      <c r="I280" s="271"/>
-      <c r="J280" s="271"/>
-      <c r="K280" s="271"/>
-      <c r="L280" s="271"/>
+      <c r="B280" s="165"/>
+      <c r="C280" s="165"/>
+      <c r="D280" s="165"/>
+      <c r="E280" s="165"/>
+      <c r="F280" s="165"/>
+      <c r="G280" s="165"/>
+      <c r="H280" s="165"/>
+      <c r="I280" s="165"/>
+      <c r="J280" s="165"/>
+      <c r="K280" s="165"/>
+      <c r="L280" s="165"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7089,12 +7089,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="172" t="s">
+      <c r="B284" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="172"/>
-      <c r="D284" s="172"/>
-      <c r="E284" s="173"/>
+      <c r="C284" s="161"/>
+      <c r="D284" s="161"/>
+      <c r="E284" s="162"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="172"/>
-      <c r="C285" s="172"/>
-      <c r="D285" s="172"/>
-      <c r="E285" s="172"/>
+      <c r="B285" s="161"/>
+      <c r="C285" s="161"/>
+      <c r="D285" s="161"/>
+      <c r="E285" s="161"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7119,12 +7119,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="172" t="s">
+      <c r="B286" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="172"/>
-      <c r="D286" s="172"/>
-      <c r="E286" s="173"/>
+      <c r="C286" s="161"/>
+      <c r="D286" s="161"/>
+      <c r="E286" s="162"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="172"/>
-      <c r="C287" s="172"/>
-      <c r="D287" s="172"/>
-      <c r="E287" s="172"/>
+      <c r="B287" s="161"/>
+      <c r="C287" s="161"/>
+      <c r="D287" s="161"/>
+      <c r="E287" s="161"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7151,12 +7151,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="172" t="s">
+      <c r="B288" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="172"/>
-      <c r="D288" s="172"/>
-      <c r="E288" s="173"/>
+      <c r="C288" s="161"/>
+      <c r="D288" s="161"/>
+      <c r="E288" s="162"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7181,12 +7181,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="172" t="s">
+      <c r="B290" s="161" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="172"/>
-      <c r="D290" s="172"/>
-      <c r="E290" s="173"/>
+      <c r="C290" s="161"/>
+      <c r="D290" s="161"/>
+      <c r="E290" s="162"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7211,12 +7211,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="172" t="s">
+      <c r="B292" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="172"/>
-      <c r="D292" s="172"/>
-      <c r="E292" s="173"/>
+      <c r="C292" s="161"/>
+      <c r="D292" s="161"/>
+      <c r="E292" s="162"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7319,82 +7319,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="175" t="s">
+      <c r="B299" s="177" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="176"/>
-      <c r="D299" s="176"/>
-      <c r="E299" s="176"/>
-      <c r="F299" s="176"/>
-      <c r="G299" s="176"/>
-      <c r="H299" s="176"/>
-      <c r="I299" s="176"/>
-      <c r="J299" s="176"/>
-      <c r="K299" s="176"/>
-      <c r="L299" s="177"/>
+      <c r="C299" s="178"/>
+      <c r="D299" s="178"/>
+      <c r="E299" s="178"/>
+      <c r="F299" s="178"/>
+      <c r="G299" s="178"/>
+      <c r="H299" s="178"/>
+      <c r="I299" s="178"/>
+      <c r="J299" s="178"/>
+      <c r="K299" s="178"/>
+      <c r="L299" s="179"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="178"/>
-      <c r="C300" s="179"/>
-      <c r="D300" s="179"/>
-      <c r="E300" s="179"/>
-      <c r="F300" s="179"/>
-      <c r="G300" s="179"/>
-      <c r="H300" s="179"/>
-      <c r="I300" s="179"/>
-      <c r="J300" s="179"/>
-      <c r="K300" s="179"/>
-      <c r="L300" s="180"/>
+      <c r="B300" s="180"/>
+      <c r="C300" s="181"/>
+      <c r="D300" s="181"/>
+      <c r="E300" s="181"/>
+      <c r="F300" s="181"/>
+      <c r="G300" s="181"/>
+      <c r="H300" s="181"/>
+      <c r="I300" s="181"/>
+      <c r="J300" s="181"/>
+      <c r="K300" s="181"/>
+      <c r="L300" s="182"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="178"/>
-      <c r="C301" s="179"/>
-      <c r="D301" s="179"/>
-      <c r="E301" s="179"/>
-      <c r="F301" s="179"/>
-      <c r="G301" s="179"/>
-      <c r="H301" s="179"/>
-      <c r="I301" s="179"/>
-      <c r="J301" s="179"/>
-      <c r="K301" s="179"/>
-      <c r="L301" s="180"/>
+      <c r="B301" s="180"/>
+      <c r="C301" s="181"/>
+      <c r="D301" s="181"/>
+      <c r="E301" s="181"/>
+      <c r="F301" s="181"/>
+      <c r="G301" s="181"/>
+      <c r="H301" s="181"/>
+      <c r="I301" s="181"/>
+      <c r="J301" s="181"/>
+      <c r="K301" s="181"/>
+      <c r="L301" s="182"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="178"/>
-      <c r="C302" s="179"/>
-      <c r="D302" s="179"/>
-      <c r="E302" s="179"/>
-      <c r="F302" s="179"/>
-      <c r="G302" s="179"/>
-      <c r="H302" s="179"/>
-      <c r="I302" s="179"/>
-      <c r="J302" s="179"/>
-      <c r="K302" s="179"/>
-      <c r="L302" s="180"/>
+      <c r="B302" s="180"/>
+      <c r="C302" s="181"/>
+      <c r="D302" s="181"/>
+      <c r="E302" s="181"/>
+      <c r="F302" s="181"/>
+      <c r="G302" s="181"/>
+      <c r="H302" s="181"/>
+      <c r="I302" s="181"/>
+      <c r="J302" s="181"/>
+      <c r="K302" s="181"/>
+      <c r="L302" s="182"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="181"/>
-      <c r="C303" s="182"/>
-      <c r="D303" s="182"/>
-      <c r="E303" s="182"/>
-      <c r="F303" s="182"/>
-      <c r="G303" s="182"/>
-      <c r="H303" s="182"/>
-      <c r="I303" s="182"/>
-      <c r="J303" s="182"/>
-      <c r="K303" s="182"/>
-      <c r="L303" s="183"/>
+      <c r="B303" s="183"/>
+      <c r="C303" s="184"/>
+      <c r="D303" s="184"/>
+      <c r="E303" s="184"/>
+      <c r="F303" s="184"/>
+      <c r="G303" s="184"/>
+      <c r="H303" s="184"/>
+      <c r="I303" s="184"/>
+      <c r="J303" s="184"/>
+      <c r="K303" s="184"/>
+      <c r="L303" s="185"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7433,83 +7433,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="175" t="s">
+      <c r="B306" s="177" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="176"/>
-      <c r="D306" s="176"/>
-      <c r="E306" s="176"/>
-      <c r="F306" s="176"/>
-      <c r="G306" s="176"/>
-      <c r="H306" s="176"/>
-      <c r="I306" s="176"/>
-      <c r="J306" s="176"/>
-      <c r="K306" s="176"/>
-      <c r="L306" s="177"/>
+      <c r="C306" s="178"/>
+      <c r="D306" s="178"/>
+      <c r="E306" s="178"/>
+      <c r="F306" s="178"/>
+      <c r="G306" s="178"/>
+      <c r="H306" s="178"/>
+      <c r="I306" s="178"/>
+      <c r="J306" s="178"/>
+      <c r="K306" s="178"/>
+      <c r="L306" s="179"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="178"/>
-      <c r="C307" s="179"/>
-      <c r="D307" s="179"/>
-      <c r="E307" s="179"/>
-      <c r="F307" s="179"/>
-      <c r="G307" s="179"/>
-      <c r="H307" s="179"/>
-      <c r="I307" s="179"/>
-      <c r="J307" s="179"/>
-      <c r="K307" s="179"/>
-      <c r="L307" s="180"/>
+      <c r="B307" s="180"/>
+      <c r="C307" s="181"/>
+      <c r="D307" s="181"/>
+      <c r="E307" s="181"/>
+      <c r="F307" s="181"/>
+      <c r="G307" s="181"/>
+      <c r="H307" s="181"/>
+      <c r="I307" s="181"/>
+      <c r="J307" s="181"/>
+      <c r="K307" s="181"/>
+      <c r="L307" s="182"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="178"/>
-      <c r="C308" s="179"/>
-      <c r="D308" s="179"/>
-      <c r="E308" s="179"/>
-      <c r="F308" s="179"/>
-      <c r="G308" s="179"/>
-      <c r="H308" s="179"/>
-      <c r="I308" s="179"/>
-      <c r="J308" s="179"/>
-      <c r="K308" s="179"/>
-      <c r="L308" s="180"/>
+      <c r="B308" s="180"/>
+      <c r="C308" s="181"/>
+      <c r="D308" s="181"/>
+      <c r="E308" s="181"/>
+      <c r="F308" s="181"/>
+      <c r="G308" s="181"/>
+      <c r="H308" s="181"/>
+      <c r="I308" s="181"/>
+      <c r="J308" s="181"/>
+      <c r="K308" s="181"/>
+      <c r="L308" s="182"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="178"/>
-      <c r="C309" s="179"/>
-      <c r="D309" s="179"/>
-      <c r="E309" s="179"/>
-      <c r="F309" s="179"/>
-      <c r="G309" s="179"/>
-      <c r="H309" s="179"/>
-      <c r="I309" s="179"/>
-      <c r="J309" s="179"/>
-      <c r="K309" s="179"/>
-      <c r="L309" s="180"/>
+      <c r="B309" s="180"/>
+      <c r="C309" s="181"/>
+      <c r="D309" s="181"/>
+      <c r="E309" s="181"/>
+      <c r="F309" s="181"/>
+      <c r="G309" s="181"/>
+      <c r="H309" s="181"/>
+      <c r="I309" s="181"/>
+      <c r="J309" s="181"/>
+      <c r="K309" s="181"/>
+      <c r="L309" s="182"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="181"/>
-      <c r="C310" s="182"/>
-      <c r="D310" s="182"/>
-      <c r="E310" s="182"/>
-      <c r="F310" s="182"/>
-      <c r="G310" s="182"/>
-      <c r="H310" s="182"/>
-      <c r="I310" s="182"/>
-      <c r="J310" s="182"/>
-      <c r="K310" s="182"/>
-      <c r="L310" s="183"/>
+      <c r="B310" s="183"/>
+      <c r="C310" s="184"/>
+      <c r="D310" s="184"/>
+      <c r="E310" s="184"/>
+      <c r="F310" s="184"/>
+      <c r="G310" s="184"/>
+      <c r="H310" s="184"/>
+      <c r="I310" s="184"/>
+      <c r="J310" s="184"/>
+      <c r="K310" s="184"/>
+      <c r="L310" s="185"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7689,83 +7689,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="175" t="s">
+      <c r="B321" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="176"/>
-      <c r="D321" s="176"/>
-      <c r="E321" s="176"/>
-      <c r="F321" s="176"/>
-      <c r="G321" s="176"/>
-      <c r="H321" s="176"/>
-      <c r="I321" s="176"/>
-      <c r="J321" s="176"/>
-      <c r="K321" s="176"/>
-      <c r="L321" s="177"/>
+      <c r="C321" s="178"/>
+      <c r="D321" s="178"/>
+      <c r="E321" s="178"/>
+      <c r="F321" s="178"/>
+      <c r="G321" s="178"/>
+      <c r="H321" s="178"/>
+      <c r="I321" s="178"/>
+      <c r="J321" s="178"/>
+      <c r="K321" s="178"/>
+      <c r="L321" s="179"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="178"/>
-      <c r="C322" s="179"/>
-      <c r="D322" s="179"/>
-      <c r="E322" s="179"/>
-      <c r="F322" s="179"/>
-      <c r="G322" s="179"/>
-      <c r="H322" s="179"/>
-      <c r="I322" s="179"/>
-      <c r="J322" s="179"/>
-      <c r="K322" s="179"/>
-      <c r="L322" s="180"/>
+      <c r="B322" s="180"/>
+      <c r="C322" s="181"/>
+      <c r="D322" s="181"/>
+      <c r="E322" s="181"/>
+      <c r="F322" s="181"/>
+      <c r="G322" s="181"/>
+      <c r="H322" s="181"/>
+      <c r="I322" s="181"/>
+      <c r="J322" s="181"/>
+      <c r="K322" s="181"/>
+      <c r="L322" s="182"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="178"/>
-      <c r="C323" s="179"/>
-      <c r="D323" s="179"/>
-      <c r="E323" s="179"/>
-      <c r="F323" s="179"/>
-      <c r="G323" s="179"/>
-      <c r="H323" s="179"/>
-      <c r="I323" s="179"/>
-      <c r="J323" s="179"/>
-      <c r="K323" s="179"/>
-      <c r="L323" s="180"/>
+      <c r="B323" s="180"/>
+      <c r="C323" s="181"/>
+      <c r="D323" s="181"/>
+      <c r="E323" s="181"/>
+      <c r="F323" s="181"/>
+      <c r="G323" s="181"/>
+      <c r="H323" s="181"/>
+      <c r="I323" s="181"/>
+      <c r="J323" s="181"/>
+      <c r="K323" s="181"/>
+      <c r="L323" s="182"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="178"/>
-      <c r="C324" s="179"/>
-      <c r="D324" s="179"/>
-      <c r="E324" s="179"/>
-      <c r="F324" s="179"/>
-      <c r="G324" s="179"/>
-      <c r="H324" s="179"/>
-      <c r="I324" s="179"/>
-      <c r="J324" s="179"/>
-      <c r="K324" s="179"/>
-      <c r="L324" s="180"/>
+      <c r="B324" s="180"/>
+      <c r="C324" s="181"/>
+      <c r="D324" s="181"/>
+      <c r="E324" s="181"/>
+      <c r="F324" s="181"/>
+      <c r="G324" s="181"/>
+      <c r="H324" s="181"/>
+      <c r="I324" s="181"/>
+      <c r="J324" s="181"/>
+      <c r="K324" s="181"/>
+      <c r="L324" s="182"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="181"/>
-      <c r="C325" s="182"/>
-      <c r="D325" s="182"/>
-      <c r="E325" s="182"/>
-      <c r="F325" s="182"/>
-      <c r="G325" s="182"/>
-      <c r="H325" s="182"/>
-      <c r="I325" s="182"/>
-      <c r="J325" s="182"/>
-      <c r="K325" s="182"/>
-      <c r="L325" s="183"/>
+      <c r="B325" s="183"/>
+      <c r="C325" s="184"/>
+      <c r="D325" s="184"/>
+      <c r="E325" s="184"/>
+      <c r="F325" s="184"/>
+      <c r="G325" s="184"/>
+      <c r="H325" s="184"/>
+      <c r="I325" s="184"/>
+      <c r="J325" s="184"/>
+      <c r="K325" s="184"/>
+      <c r="L325" s="185"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7787,19 +7787,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="174" t="s">
+      <c r="B327" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="174"/>
-      <c r="D327" s="174"/>
-      <c r="E327" s="174"/>
-      <c r="F327" s="174"/>
-      <c r="G327" s="174"/>
-      <c r="H327" s="174"/>
-      <c r="I327" s="174"/>
-      <c r="J327" s="174"/>
-      <c r="K327" s="174"/>
-      <c r="L327" s="174"/>
+      <c r="C327" s="266"/>
+      <c r="D327" s="266"/>
+      <c r="E327" s="266"/>
+      <c r="F327" s="266"/>
+      <c r="G327" s="266"/>
+      <c r="H327" s="266"/>
+      <c r="I327" s="266"/>
+      <c r="J327" s="266"/>
+      <c r="K327" s="266"/>
+      <c r="L327" s="266"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7914,79 +7914,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="184" t="s">
+      <c r="B335" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="185"/>
-      <c r="D335" s="185"/>
-      <c r="E335" s="185"/>
-      <c r="F335" s="185"/>
-      <c r="G335" s="185"/>
-      <c r="H335" s="185"/>
-      <c r="I335" s="185"/>
-      <c r="J335" s="185"/>
-      <c r="K335" s="185"/>
-      <c r="L335" s="186"/>
+      <c r="C335" s="268"/>
+      <c r="D335" s="268"/>
+      <c r="E335" s="268"/>
+      <c r="F335" s="268"/>
+      <c r="G335" s="268"/>
+      <c r="H335" s="268"/>
+      <c r="I335" s="268"/>
+      <c r="J335" s="268"/>
+      <c r="K335" s="268"/>
+      <c r="L335" s="269"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="187"/>
-      <c r="C336" s="188"/>
-      <c r="D336" s="188"/>
-      <c r="E336" s="188"/>
-      <c r="F336" s="188"/>
-      <c r="G336" s="188"/>
-      <c r="H336" s="188"/>
-      <c r="I336" s="188"/>
-      <c r="J336" s="188"/>
-      <c r="K336" s="188"/>
-      <c r="L336" s="189"/>
+      <c r="B336" s="270"/>
+      <c r="C336" s="271"/>
+      <c r="D336" s="271"/>
+      <c r="E336" s="271"/>
+      <c r="F336" s="271"/>
+      <c r="G336" s="271"/>
+      <c r="H336" s="271"/>
+      <c r="I336" s="271"/>
+      <c r="J336" s="271"/>
+      <c r="K336" s="271"/>
+      <c r="L336" s="272"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="187"/>
-      <c r="C337" s="188"/>
-      <c r="D337" s="188"/>
-      <c r="E337" s="188"/>
-      <c r="F337" s="188"/>
-      <c r="G337" s="188"/>
-      <c r="H337" s="188"/>
-      <c r="I337" s="188"/>
-      <c r="J337" s="188"/>
-      <c r="K337" s="188"/>
-      <c r="L337" s="189"/>
+      <c r="B337" s="270"/>
+      <c r="C337" s="271"/>
+      <c r="D337" s="271"/>
+      <c r="E337" s="271"/>
+      <c r="F337" s="271"/>
+      <c r="G337" s="271"/>
+      <c r="H337" s="271"/>
+      <c r="I337" s="271"/>
+      <c r="J337" s="271"/>
+      <c r="K337" s="271"/>
+      <c r="L337" s="272"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="187"/>
-      <c r="C338" s="188"/>
-      <c r="D338" s="188"/>
-      <c r="E338" s="188"/>
-      <c r="F338" s="188"/>
-      <c r="G338" s="188"/>
-      <c r="H338" s="188"/>
-      <c r="I338" s="188"/>
-      <c r="J338" s="188"/>
-      <c r="K338" s="188"/>
-      <c r="L338" s="189"/>
+      <c r="B338" s="270"/>
+      <c r="C338" s="271"/>
+      <c r="D338" s="271"/>
+      <c r="E338" s="271"/>
+      <c r="F338" s="271"/>
+      <c r="G338" s="271"/>
+      <c r="H338" s="271"/>
+      <c r="I338" s="271"/>
+      <c r="J338" s="271"/>
+      <c r="K338" s="271"/>
+      <c r="L338" s="272"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="190"/>
-      <c r="C339" s="191"/>
-      <c r="D339" s="191"/>
-      <c r="E339" s="191"/>
-      <c r="F339" s="191"/>
-      <c r="G339" s="191"/>
-      <c r="H339" s="191"/>
-      <c r="I339" s="191"/>
-      <c r="J339" s="191"/>
-      <c r="K339" s="191"/>
-      <c r="L339" s="192"/>
+      <c r="B339" s="273"/>
+      <c r="C339" s="274"/>
+      <c r="D339" s="274"/>
+      <c r="E339" s="274"/>
+      <c r="F339" s="274"/>
+      <c r="G339" s="274"/>
+      <c r="H339" s="274"/>
+      <c r="I339" s="274"/>
+      <c r="J339" s="274"/>
+      <c r="K339" s="274"/>
+      <c r="L339" s="275"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8006,19 +8006,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="174" t="s">
+      <c r="B341" s="266" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="174"/>
-      <c r="D341" s="174"/>
-      <c r="E341" s="174"/>
-      <c r="F341" s="174"/>
-      <c r="G341" s="174"/>
-      <c r="H341" s="174"/>
-      <c r="I341" s="174"/>
-      <c r="J341" s="174"/>
-      <c r="K341" s="174"/>
-      <c r="L341" s="174"/>
+      <c r="C341" s="266"/>
+      <c r="D341" s="266"/>
+      <c r="E341" s="266"/>
+      <c r="F341" s="266"/>
+      <c r="G341" s="266"/>
+      <c r="H341" s="266"/>
+      <c r="I341" s="266"/>
+      <c r="J341" s="266"/>
+      <c r="K341" s="266"/>
+      <c r="L341" s="266"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8067,12 +8067,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="171" t="s">
+      <c r="B345" s="187" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="171"/>
-      <c r="D345" s="171"/>
-      <c r="E345" s="171"/>
+      <c r="C345" s="187"/>
+      <c r="D345" s="187"/>
+      <c r="E345" s="187"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8095,12 +8095,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="171" t="s">
+      <c r="B347" s="187" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="171"/>
-      <c r="D347" s="171"/>
-      <c r="E347" s="171"/>
+      <c r="C347" s="187"/>
+      <c r="D347" s="187"/>
+      <c r="E347" s="187"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8125,13 +8125,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="171" t="s">
+      <c r="B349" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="171"/>
-      <c r="D349" s="171"/>
-      <c r="E349" s="171"/>
-      <c r="F349" s="173"/>
+      <c r="C349" s="187"/>
+      <c r="D349" s="187"/>
+      <c r="E349" s="187"/>
+      <c r="F349" s="162"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8154,13 +8154,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="171" t="s">
+      <c r="B351" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="171"/>
-      <c r="D351" s="171"/>
-      <c r="E351" s="171"/>
-      <c r="F351" s="173"/>
+      <c r="C351" s="187"/>
+      <c r="D351" s="187"/>
+      <c r="E351" s="187"/>
+      <c r="F351" s="162"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8183,13 +8183,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="171" t="s">
+      <c r="B353" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="171"/>
-      <c r="D353" s="171"/>
-      <c r="E353" s="171"/>
-      <c r="F353" s="173"/>
+      <c r="C353" s="187"/>
+      <c r="D353" s="187"/>
+      <c r="E353" s="187"/>
+      <c r="F353" s="162"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8261,83 +8261,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="175" t="s">
+      <c r="B358" s="177" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="176"/>
-      <c r="D358" s="176"/>
-      <c r="E358" s="176"/>
-      <c r="F358" s="176"/>
-      <c r="G358" s="176"/>
-      <c r="H358" s="176"/>
-      <c r="I358" s="176"/>
-      <c r="J358" s="176"/>
-      <c r="K358" s="176"/>
-      <c r="L358" s="177"/>
+      <c r="C358" s="178"/>
+      <c r="D358" s="178"/>
+      <c r="E358" s="178"/>
+      <c r="F358" s="178"/>
+      <c r="G358" s="178"/>
+      <c r="H358" s="178"/>
+      <c r="I358" s="178"/>
+      <c r="J358" s="178"/>
+      <c r="K358" s="178"/>
+      <c r="L358" s="179"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="178"/>
-      <c r="C359" s="179"/>
-      <c r="D359" s="179"/>
-      <c r="E359" s="179"/>
-      <c r="F359" s="179"/>
-      <c r="G359" s="179"/>
-      <c r="H359" s="179"/>
-      <c r="I359" s="179"/>
-      <c r="J359" s="179"/>
-      <c r="K359" s="179"/>
-      <c r="L359" s="180"/>
+      <c r="B359" s="180"/>
+      <c r="C359" s="181"/>
+      <c r="D359" s="181"/>
+      <c r="E359" s="181"/>
+      <c r="F359" s="181"/>
+      <c r="G359" s="181"/>
+      <c r="H359" s="181"/>
+      <c r="I359" s="181"/>
+      <c r="J359" s="181"/>
+      <c r="K359" s="181"/>
+      <c r="L359" s="182"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="178"/>
-      <c r="C360" s="179"/>
-      <c r="D360" s="179"/>
-      <c r="E360" s="179"/>
-      <c r="F360" s="179"/>
-      <c r="G360" s="179"/>
-      <c r="H360" s="179"/>
-      <c r="I360" s="179"/>
-      <c r="J360" s="179"/>
-      <c r="K360" s="179"/>
-      <c r="L360" s="180"/>
+      <c r="B360" s="180"/>
+      <c r="C360" s="181"/>
+      <c r="D360" s="181"/>
+      <c r="E360" s="181"/>
+      <c r="F360" s="181"/>
+      <c r="G360" s="181"/>
+      <c r="H360" s="181"/>
+      <c r="I360" s="181"/>
+      <c r="J360" s="181"/>
+      <c r="K360" s="181"/>
+      <c r="L360" s="182"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="178"/>
-      <c r="C361" s="179"/>
-      <c r="D361" s="179"/>
-      <c r="E361" s="179"/>
-      <c r="F361" s="179"/>
-      <c r="G361" s="179"/>
-      <c r="H361" s="179"/>
-      <c r="I361" s="179"/>
-      <c r="J361" s="179"/>
-      <c r="K361" s="179"/>
-      <c r="L361" s="180"/>
+      <c r="B361" s="180"/>
+      <c r="C361" s="181"/>
+      <c r="D361" s="181"/>
+      <c r="E361" s="181"/>
+      <c r="F361" s="181"/>
+      <c r="G361" s="181"/>
+      <c r="H361" s="181"/>
+      <c r="I361" s="181"/>
+      <c r="J361" s="181"/>
+      <c r="K361" s="181"/>
+      <c r="L361" s="182"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="181"/>
-      <c r="C362" s="182"/>
-      <c r="D362" s="182"/>
-      <c r="E362" s="182"/>
-      <c r="F362" s="182"/>
-      <c r="G362" s="182"/>
-      <c r="H362" s="182"/>
-      <c r="I362" s="182"/>
-      <c r="J362" s="182"/>
-      <c r="K362" s="182"/>
-      <c r="L362" s="183"/>
+      <c r="B362" s="183"/>
+      <c r="C362" s="184"/>
+      <c r="D362" s="184"/>
+      <c r="E362" s="184"/>
+      <c r="F362" s="184"/>
+      <c r="G362" s="184"/>
+      <c r="H362" s="184"/>
+      <c r="I362" s="184"/>
+      <c r="J362" s="184"/>
+      <c r="K362" s="184"/>
+      <c r="L362" s="185"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8412,28 +8412,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="197" t="s">
+      <c r="B367" s="251" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="198"/>
-      <c r="D367" s="169" t="s">
+      <c r="C367" s="252"/>
+      <c r="D367" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="193"/>
-      <c r="F367" s="193"/>
-      <c r="G367" s="193"/>
-      <c r="H367" s="193"/>
-      <c r="I367" s="193"/>
-      <c r="J367" s="193"/>
-      <c r="K367" s="193"/>
-      <c r="L367" s="170"/>
+      <c r="E367" s="242"/>
+      <c r="F367" s="242"/>
+      <c r="G367" s="242"/>
+      <c r="H367" s="242"/>
+      <c r="I367" s="242"/>
+      <c r="J367" s="242"/>
+      <c r="K367" s="242"/>
+      <c r="L367" s="243"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="169"/>
-      <c r="C368" s="170"/>
+      <c r="B368" s="241"/>
+      <c r="C368" s="243"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8441,26 +8441,26 @@
       <c r="H368" s="72"/>
       <c r="I368" s="72"/>
       <c r="J368" s="72"/>
-      <c r="K368" s="146"/>
+      <c r="K368" s="145"/>
       <c r="L368" s="71"/>
       <c r="M368" s="12"/>
       <c r="N368" s="2"/>
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="228" t="s">
+      <c r="B369" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="228"/>
-      <c r="D369" s="228"/>
-      <c r="E369" s="228"/>
-      <c r="F369" s="228"/>
-      <c r="G369" s="228"/>
-      <c r="H369" s="228"/>
-      <c r="I369" s="228"/>
-      <c r="J369" s="228"/>
-      <c r="K369" s="228"/>
-      <c r="L369" s="228"/>
+      <c r="C369" s="186"/>
+      <c r="D369" s="186"/>
+      <c r="E369" s="186"/>
+      <c r="F369" s="186"/>
+      <c r="G369" s="186"/>
+      <c r="H369" s="186"/>
+      <c r="I369" s="186"/>
+      <c r="J369" s="186"/>
+      <c r="K369" s="186"/>
+      <c r="L369" s="186"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8548,20 +8548,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="204" t="s">
+      <c r="C375" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="204"/>
-      <c r="E375" s="203" t="s">
+      <c r="D375" s="230"/>
+      <c r="E375" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="203"/>
-      <c r="G375" s="203"/>
-      <c r="H375" s="203" t="s">
+      <c r="F375" s="231"/>
+      <c r="G375" s="231"/>
+      <c r="H375" s="231" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="203"/>
-      <c r="J375" s="203"/>
+      <c r="I375" s="231"/>
+      <c r="J375" s="231"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8571,14 +8571,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="204"/>
-      <c r="D376" s="204"/>
-      <c r="E376" s="203"/>
-      <c r="F376" s="203"/>
-      <c r="G376" s="203"/>
-      <c r="H376" s="203"/>
-      <c r="I376" s="203"/>
-      <c r="J376" s="203"/>
+      <c r="C376" s="230"/>
+      <c r="D376" s="230"/>
+      <c r="E376" s="231"/>
+      <c r="F376" s="231"/>
+      <c r="G376" s="231"/>
+      <c r="H376" s="231"/>
+      <c r="I376" s="231"/>
+      <c r="J376" s="231"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8588,14 +8588,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="204"/>
-      <c r="D377" s="204"/>
-      <c r="E377" s="203"/>
-      <c r="F377" s="203"/>
-      <c r="G377" s="203"/>
-      <c r="H377" s="203"/>
-      <c r="I377" s="203"/>
-      <c r="J377" s="203"/>
+      <c r="C377" s="230"/>
+      <c r="D377" s="230"/>
+      <c r="E377" s="231"/>
+      <c r="F377" s="231"/>
+      <c r="G377" s="231"/>
+      <c r="H377" s="231"/>
+      <c r="I377" s="231"/>
+      <c r="J377" s="231"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8605,14 +8605,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="204"/>
-      <c r="D378" s="204"/>
-      <c r="E378" s="203"/>
-      <c r="F378" s="203"/>
-      <c r="G378" s="203"/>
-      <c r="H378" s="203"/>
-      <c r="I378" s="203"/>
-      <c r="J378" s="203"/>
+      <c r="C378" s="230"/>
+      <c r="D378" s="230"/>
+      <c r="E378" s="231"/>
+      <c r="F378" s="231"/>
+      <c r="G378" s="231"/>
+      <c r="H378" s="231"/>
+      <c r="I378" s="231"/>
+      <c r="J378" s="231"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8622,14 +8622,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="204"/>
-      <c r="D379" s="204"/>
-      <c r="E379" s="203"/>
-      <c r="F379" s="203"/>
-      <c r="G379" s="203"/>
-      <c r="H379" s="203"/>
-      <c r="I379" s="203"/>
-      <c r="J379" s="203"/>
+      <c r="C379" s="230"/>
+      <c r="D379" s="230"/>
+      <c r="E379" s="231"/>
+      <c r="F379" s="231"/>
+      <c r="G379" s="231"/>
+      <c r="H379" s="231"/>
+      <c r="I379" s="231"/>
+      <c r="J379" s="231"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8639,14 +8639,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="204"/>
-      <c r="D380" s="204"/>
-      <c r="E380" s="203"/>
-      <c r="F380" s="203"/>
-      <c r="G380" s="203"/>
-      <c r="H380" s="203"/>
-      <c r="I380" s="203"/>
-      <c r="J380" s="203"/>
+      <c r="C380" s="230"/>
+      <c r="D380" s="230"/>
+      <c r="E380" s="231"/>
+      <c r="F380" s="231"/>
+      <c r="G380" s="231"/>
+      <c r="H380" s="231"/>
+      <c r="I380" s="231"/>
+      <c r="J380" s="231"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8656,14 +8656,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="204"/>
-      <c r="D381" s="204"/>
-      <c r="E381" s="203"/>
-      <c r="F381" s="203"/>
-      <c r="G381" s="203"/>
-      <c r="H381" s="203"/>
-      <c r="I381" s="203"/>
-      <c r="J381" s="203"/>
+      <c r="C381" s="230"/>
+      <c r="D381" s="230"/>
+      <c r="E381" s="231"/>
+      <c r="F381" s="231"/>
+      <c r="G381" s="231"/>
+      <c r="H381" s="231"/>
+      <c r="I381" s="231"/>
+      <c r="J381" s="231"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8673,14 +8673,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="204"/>
-      <c r="D382" s="204"/>
-      <c r="E382" s="203"/>
-      <c r="F382" s="203"/>
-      <c r="G382" s="203"/>
-      <c r="H382" s="203"/>
-      <c r="I382" s="203"/>
-      <c r="J382" s="203"/>
+      <c r="C382" s="230"/>
+      <c r="D382" s="230"/>
+      <c r="E382" s="231"/>
+      <c r="F382" s="231"/>
+      <c r="G382" s="231"/>
+      <c r="H382" s="231"/>
+      <c r="I382" s="231"/>
+      <c r="J382" s="231"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="204" t="s">
+      <c r="C392" s="230" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="204"/>
+      <c r="D392" s="230"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8816,43 +8816,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="218" t="s">
+      <c r="B393" s="159" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="218" t="s">
+      <c r="C393" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="218" t="s">
+      <c r="D393" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="218" t="s">
+      <c r="E393" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="219" t="s">
+      <c r="F393" s="232" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="219" t="s">
+      <c r="G393" s="232" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="219" t="s">
+      <c r="H393" s="232" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="203" t="s">
+      <c r="I393" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="203"/>
+      <c r="J393" s="231"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="218"/>
-      <c r="C394" s="218"/>
-      <c r="D394" s="218"/>
-      <c r="E394" s="218"/>
-      <c r="F394" s="220"/>
-      <c r="G394" s="220"/>
-      <c r="H394" s="220"/>
+      <c r="B394" s="159"/>
+      <c r="C394" s="159"/>
+      <c r="D394" s="159"/>
+      <c r="E394" s="159"/>
+      <c r="F394" s="233"/>
+      <c r="G394" s="233"/>
+      <c r="H394" s="233"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -8875,7 +8875,7 @@
       <c r="H395" s="38"/>
       <c r="I395" s="118"/>
       <c r="J395" s="118"/>
-      <c r="K395" s="157"/>
+      <c r="K395" s="156"/>
       <c r="L395" s="24"/>
     </row>
     <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -9157,21 +9157,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="212" t="s">
+      <c r="B414" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="214"/>
-      <c r="D414" s="212" t="s">
+      <c r="C414" s="168"/>
+      <c r="D414" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="213"/>
-      <c r="F414" s="213"/>
-      <c r="G414" s="213"/>
-      <c r="H414" s="213"/>
-      <c r="I414" s="213"/>
-      <c r="J414" s="214"/>
-      <c r="K414" s="148"/>
-      <c r="L414" s="219" t="s">
+      <c r="E414" s="167"/>
+      <c r="F414" s="167"/>
+      <c r="G414" s="167"/>
+      <c r="H414" s="167"/>
+      <c r="I414" s="167"/>
+      <c r="J414" s="168"/>
+      <c r="K414" s="147"/>
+      <c r="L414" s="232" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9204,8 +9204,8 @@
       <c r="J415" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K415" s="158"/>
-      <c r="L415" s="220"/>
+      <c r="K415" s="157"/>
+      <c r="L415" s="233"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9274,7 +9274,7 @@
       <c r="J419" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="K419" s="152"/>
+      <c r="K419" s="151"/>
       <c r="L419" s="81"/>
     </row>
     <row r="420" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9288,7 +9288,7 @@
       <c r="H420" s="79"/>
       <c r="I420" s="79"/>
       <c r="J420" s="79"/>
-      <c r="K420" s="151"/>
+      <c r="K420" s="150"/>
       <c r="L420" s="79"/>
     </row>
     <row r="421" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9352,7 +9352,7 @@
       <c r="J424" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="K424" s="152"/>
+      <c r="K424" s="151"/>
       <c r="L424" s="81"/>
     </row>
     <row r="425" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9366,7 +9366,7 @@
       <c r="H425" s="79"/>
       <c r="I425" s="79"/>
       <c r="J425" s="79"/>
-      <c r="K425" s="151"/>
+      <c r="K425" s="150"/>
       <c r="L425" s="79"/>
     </row>
     <row r="426" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9384,7 +9384,7 @@
       <c r="J426" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="K426" s="147"/>
+      <c r="K426" s="146"/>
       <c r="L426" s="45"/>
     </row>
     <row r="427" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9400,7 +9400,7 @@
       <c r="H427" s="79"/>
       <c r="I427" s="79"/>
       <c r="J427" s="79"/>
-      <c r="K427" s="151"/>
+      <c r="K427" s="150"/>
       <c r="L427" s="79"/>
     </row>
     <row r="428" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9414,7 +9414,7 @@
       <c r="H428" s="79"/>
       <c r="I428" s="79"/>
       <c r="J428" s="79"/>
-      <c r="K428" s="151"/>
+      <c r="K428" s="150"/>
       <c r="L428" s="79"/>
     </row>
     <row r="429" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9432,7 +9432,7 @@
       <c r="H429" s="79"/>
       <c r="I429" s="79"/>
       <c r="J429" s="79"/>
-      <c r="K429" s="151"/>
+      <c r="K429" s="150"/>
       <c r="L429" s="79"/>
     </row>
     <row r="430" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9446,28 +9446,28 @@
       <c r="H430" s="79"/>
       <c r="I430" s="79"/>
       <c r="J430" s="79"/>
-      <c r="K430" s="151"/>
+      <c r="K430" s="150"/>
       <c r="L430" s="79"/>
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="212" t="s">
+      <c r="B431" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="214"/>
-      <c r="D431" s="227" t="s">
+      <c r="C431" s="168"/>
+      <c r="D431" s="240" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="212" t="s">
+      <c r="E431" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="213"/>
-      <c r="G431" s="213"/>
-      <c r="H431" s="213"/>
-      <c r="I431" s="213"/>
-      <c r="J431" s="214"/>
-      <c r="K431" s="148"/>
-      <c r="L431" s="219" t="s">
+      <c r="F431" s="167"/>
+      <c r="G431" s="167"/>
+      <c r="H431" s="167"/>
+      <c r="I431" s="167"/>
+      <c r="J431" s="168"/>
+      <c r="K431" s="147"/>
+      <c r="L431" s="232" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="204"/>
+      <c r="D432" s="230"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9498,8 +9498,8 @@
       <c r="J432" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K432" s="158"/>
-      <c r="L432" s="220"/>
+      <c r="K432" s="157"/>
+      <c r="L432" s="233"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9566,7 +9566,7 @@
       <c r="H436" s="79"/>
       <c r="I436" s="79"/>
       <c r="J436" s="79"/>
-      <c r="K436" s="151"/>
+      <c r="K436" s="150"/>
       <c r="L436" s="79"/>
     </row>
     <row r="437" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9584,7 +9584,7 @@
       <c r="H437" s="79"/>
       <c r="I437" s="79"/>
       <c r="J437" s="79"/>
-      <c r="K437" s="151"/>
+      <c r="K437" s="150"/>
       <c r="L437" s="79"/>
     </row>
     <row r="438" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9598,7 +9598,7 @@
       <c r="H438" s="79"/>
       <c r="I438" s="79"/>
       <c r="J438" s="79"/>
-      <c r="K438" s="151"/>
+      <c r="K438" s="150"/>
       <c r="L438" s="79"/>
     </row>
     <row r="439" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9614,7 +9614,7 @@
       <c r="H439" s="79"/>
       <c r="I439" s="79"/>
       <c r="J439" s="79"/>
-      <c r="K439" s="151"/>
+      <c r="K439" s="150"/>
       <c r="L439" s="79"/>
     </row>
     <row r="440" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9626,7 +9626,7 @@
       <c r="H440" s="79"/>
       <c r="I440" s="79"/>
       <c r="J440" s="79"/>
-      <c r="K440" s="151"/>
+      <c r="K440" s="150"/>
       <c r="L440" s="79"/>
     </row>
     <row r="441" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9642,7 +9642,7 @@
       <c r="H441" s="79"/>
       <c r="I441" s="79"/>
       <c r="J441" s="79"/>
-      <c r="K441" s="151"/>
+      <c r="K441" s="150"/>
       <c r="L441" s="79"/>
     </row>
     <row r="442" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9654,7 +9654,7 @@
       <c r="H442" s="79"/>
       <c r="I442" s="79"/>
       <c r="J442" s="79"/>
-      <c r="K442" s="151"/>
+      <c r="K442" s="150"/>
       <c r="L442" s="79"/>
     </row>
     <row r="443" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9668,7 +9668,7 @@
       <c r="H443" s="79"/>
       <c r="I443" s="79"/>
       <c r="J443" s="79"/>
-      <c r="K443" s="151"/>
+      <c r="K443" s="150"/>
       <c r="L443" s="79"/>
     </row>
     <row r="444" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9682,31 +9682,31 @@
       <c r="H444" s="79"/>
       <c r="I444" s="79"/>
       <c r="J444" s="79"/>
-      <c r="K444" s="151"/>
+      <c r="K444" s="150"/>
       <c r="L444" s="79"/>
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="208" t="s">
+      <c r="B445" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="209"/>
-      <c r="D445" s="212" t="s">
+      <c r="C445" s="247"/>
+      <c r="D445" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="213"/>
-      <c r="F445" s="213"/>
-      <c r="G445" s="213"/>
-      <c r="H445" s="213"/>
-      <c r="I445" s="213"/>
-      <c r="J445" s="214"/>
+      <c r="E445" s="167"/>
+      <c r="F445" s="167"/>
+      <c r="G445" s="167"/>
+      <c r="H445" s="167"/>
+      <c r="I445" s="167"/>
+      <c r="J445" s="168"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="215"/>
+      <c r="L445" s="250"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="210"/>
-      <c r="C446" s="211"/>
+      <c r="B446" s="248"/>
+      <c r="C446" s="249"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9729,14 +9729,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="215"/>
+      <c r="L446" s="250"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="169" t="s">
+      <c r="B447" s="241" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="170"/>
+      <c r="C447" s="243"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9748,10 +9748,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="169" t="s">
+      <c r="B448" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="170"/>
+      <c r="C448" s="243"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="169" t="s">
+      <c r="B449" s="241" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="170"/>
+      <c r="C449" s="243"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="212" t="s">
+      <c r="B450" s="166" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="214"/>
+      <c r="C450" s="168"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -9803,7 +9803,7 @@
       <c r="H451" s="79"/>
       <c r="I451" s="79"/>
       <c r="J451" s="79"/>
-      <c r="K451" s="151"/>
+      <c r="K451" s="150"/>
       <c r="L451" s="79"/>
     </row>
     <row r="452" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9821,7 +9821,7 @@
       <c r="H452" s="24"/>
       <c r="I452" s="79"/>
       <c r="J452" s="79"/>
-      <c r="K452" s="151"/>
+      <c r="K452" s="150"/>
       <c r="L452" s="79"/>
     </row>
     <row r="453" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9835,7 +9835,7 @@
       <c r="H453" s="78"/>
       <c r="I453" s="79"/>
       <c r="J453" s="79"/>
-      <c r="K453" s="151"/>
+      <c r="K453" s="150"/>
       <c r="L453" s="79"/>
     </row>
     <row r="454" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9851,7 +9851,7 @@
       <c r="H454" s="78"/>
       <c r="I454" s="79"/>
       <c r="J454" s="79"/>
-      <c r="K454" s="151"/>
+      <c r="K454" s="150"/>
       <c r="L454" s="79"/>
     </row>
     <row r="455" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9865,7 +9865,7 @@
       <c r="H455" s="78"/>
       <c r="I455" s="79"/>
       <c r="J455" s="79"/>
-      <c r="K455" s="151"/>
+      <c r="K455" s="150"/>
       <c r="L455" s="79"/>
     </row>
     <row r="456" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9879,7 +9879,7 @@
       <c r="H456" s="78"/>
       <c r="I456" s="79"/>
       <c r="J456" s="79"/>
-      <c r="K456" s="151"/>
+      <c r="K456" s="150"/>
       <c r="L456" s="79"/>
     </row>
     <row r="457" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9893,7 +9893,7 @@
       <c r="H457" s="78"/>
       <c r="I457" s="79"/>
       <c r="J457" s="79"/>
-      <c r="K457" s="151"/>
+      <c r="K457" s="150"/>
       <c r="L457" s="79"/>
     </row>
     <row r="458" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9907,7 +9907,7 @@
       <c r="H458" s="78"/>
       <c r="I458" s="79"/>
       <c r="J458" s="79"/>
-      <c r="K458" s="151"/>
+      <c r="K458" s="150"/>
       <c r="L458" s="79"/>
     </row>
     <row r="459" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9921,7 +9921,7 @@
       <c r="H459" s="79"/>
       <c r="I459" s="79"/>
       <c r="J459" s="79"/>
-      <c r="K459" s="151"/>
+      <c r="K459" s="150"/>
       <c r="L459" s="79"/>
     </row>
     <row r="460" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9939,7 +9939,7 @@
       <c r="H460" s="79"/>
       <c r="I460" s="79"/>
       <c r="J460" s="79"/>
-      <c r="K460" s="151"/>
+      <c r="K460" s="150"/>
       <c r="L460" s="79"/>
     </row>
     <row r="461" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9953,7 +9953,7 @@
       <c r="H461" s="79"/>
       <c r="I461" s="79"/>
       <c r="J461" s="79"/>
-      <c r="K461" s="151"/>
+      <c r="K461" s="150"/>
       <c r="L461" s="79"/>
     </row>
     <row r="462" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9971,7 +9971,7 @@
       <c r="H462" s="79"/>
       <c r="I462" s="79"/>
       <c r="J462" s="79"/>
-      <c r="K462" s="151"/>
+      <c r="K462" s="150"/>
       <c r="L462" s="79"/>
     </row>
     <row r="463" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
       <c r="H463" s="79"/>
       <c r="I463" s="79"/>
       <c r="J463" s="79"/>
-      <c r="K463" s="151"/>
+      <c r="K463" s="150"/>
       <c r="L463" s="79"/>
     </row>
     <row r="464" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10003,7 +10003,7 @@
       <c r="H464" s="79"/>
       <c r="I464" s="79"/>
       <c r="J464" s="79"/>
-      <c r="K464" s="151"/>
+      <c r="K464" s="150"/>
       <c r="L464" s="79"/>
     </row>
     <row r="465" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10019,7 +10019,7 @@
       <c r="H465" s="79"/>
       <c r="I465" s="79"/>
       <c r="J465" s="79"/>
-      <c r="K465" s="151"/>
+      <c r="K465" s="150"/>
       <c r="L465" s="79"/>
     </row>
     <row r="466" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10035,7 +10035,7 @@
       <c r="H466" s="79"/>
       <c r="I466" s="79"/>
       <c r="J466" s="79"/>
-      <c r="K466" s="151"/>
+      <c r="K466" s="150"/>
       <c r="L466" s="79"/>
     </row>
     <row r="467" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10051,7 +10051,7 @@
       <c r="H467" s="79"/>
       <c r="I467" s="79"/>
       <c r="J467" s="79"/>
-      <c r="K467" s="151"/>
+      <c r="K467" s="150"/>
       <c r="L467" s="79"/>
     </row>
     <row r="468" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10065,7 +10065,7 @@
       <c r="H468" s="79"/>
       <c r="I468" s="79"/>
       <c r="J468" s="79"/>
-      <c r="K468" s="151"/>
+      <c r="K468" s="150"/>
       <c r="L468" s="79"/>
     </row>
     <row r="469" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10095,7 +10095,7 @@
       <c r="H470" s="18"/>
       <c r="I470" s="79"/>
       <c r="J470" s="79"/>
-      <c r="K470" s="151"/>
+      <c r="K470" s="150"/>
       <c r="L470" s="79"/>
     </row>
     <row r="471" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10109,7 +10109,7 @@
       <c r="H471" s="18"/>
       <c r="I471" s="79"/>
       <c r="J471" s="79"/>
-      <c r="K471" s="151"/>
+      <c r="K471" s="150"/>
       <c r="L471" s="79"/>
     </row>
     <row r="472" spans="1:14" s="2" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -10117,19 +10117,19 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="224" t="s">
-        <v>336</v>
-      </c>
-      <c r="D472" s="225"/>
-      <c r="E472" s="225"/>
-      <c r="F472" s="225"/>
-      <c r="G472" s="225"/>
-      <c r="H472" s="225"/>
-      <c r="I472" s="225"/>
-      <c r="J472" s="225"/>
-      <c r="K472" s="225"/>
-      <c r="L472" s="226"/>
-      <c r="M472" s="135"/>
+      <c r="C472" s="237" t="s">
+        <v>335</v>
+      </c>
+      <c r="D472" s="238"/>
+      <c r="E472" s="238"/>
+      <c r="F472" s="238"/>
+      <c r="G472" s="238"/>
+      <c r="H472" s="238"/>
+      <c r="I472" s="238"/>
+      <c r="J472" s="238"/>
+      <c r="K472" s="238"/>
+      <c r="L472" s="239"/>
+      <c r="M472" s="134"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="18"/>
@@ -10142,7 +10142,7 @@
       <c r="H473" s="18"/>
       <c r="I473" s="79"/>
       <c r="J473" s="79"/>
-      <c r="K473" s="151"/>
+      <c r="K473" s="150"/>
       <c r="L473" s="79"/>
     </row>
     <row r="474" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10158,71 +10158,71 @@
       <c r="H474" s="18"/>
       <c r="I474" s="79"/>
       <c r="J474" s="79"/>
-      <c r="K474" s="151"/>
+      <c r="K474" s="150"/>
       <c r="L474" s="79"/>
     </row>
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="204" t="s">
+      <c r="C475" s="230" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="204"/>
+      <c r="D475" s="230"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
       <c r="H475" s="18"/>
       <c r="I475" s="79"/>
       <c r="J475" s="79"/>
-      <c r="K475" s="151"/>
+      <c r="K475" s="150"/>
       <c r="L475" s="79"/>
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="218" t="s">
+      <c r="B476" s="159" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="218" t="s">
+      <c r="C476" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="218" t="s">
+      <c r="D476" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="218" t="s">
+      <c r="E476" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="219" t="s">
+      <c r="F476" s="232" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="219" t="s">
+      <c r="G476" s="232" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="219" t="s">
+      <c r="H476" s="232" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="221" t="s">
+      <c r="I476" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="222"/>
-      <c r="K476" s="222"/>
-      <c r="L476" s="223"/>
+      <c r="J476" s="235"/>
+      <c r="K476" s="235"/>
+      <c r="L476" s="236"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="218"/>
-      <c r="C477" s="218"/>
-      <c r="D477" s="218"/>
-      <c r="E477" s="218"/>
-      <c r="F477" s="220"/>
-      <c r="G477" s="220"/>
-      <c r="H477" s="220"/>
+      <c r="B477" s="159"/>
+      <c r="C477" s="159"/>
+      <c r="D477" s="159"/>
+      <c r="E477" s="159"/>
+      <c r="F477" s="233"/>
+      <c r="G477" s="233"/>
+      <c r="H477" s="233"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
       <c r="J477" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="K477" s="149" t="s">
+      <c r="K477" s="148" t="s">
         <v>323</v>
       </c>
       <c r="L477" s="76"/>
@@ -10245,25 +10245,25 @@
       <c r="F478" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="G478" s="143">
-        <v>622.46</v>
+      <c r="G478" s="142">
+        <v>978.06</v>
       </c>
       <c r="H478" s="127">
-        <v>317601.40000000002</v>
-      </c>
-      <c r="J478" s="140">
+        <v>335092.57</v>
+      </c>
+      <c r="J478" s="139">
         <f>N478/2</f>
-        <v>158800.70000000001</v>
-      </c>
-      <c r="K478" s="140">
+        <v>167546.285</v>
+      </c>
+      <c r="K478" s="139">
         <f>+H478/2</f>
-        <v>158800.70000000001</v>
-      </c>
-      <c r="L478" s="140"/>
+        <v>167546.285</v>
+      </c>
+      <c r="L478" s="139"/>
       <c r="M478" s="79"/>
-      <c r="N478" s="139">
+      <c r="N478" s="138">
         <f>H478</f>
-        <v>317601.40000000002</v>
+        <v>335092.57</v>
       </c>
     </row>
     <row r="479" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10357,10 +10357,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="199" t="s">
+      <c r="F484" s="253" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="199"/>
+      <c r="G484" s="253"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10379,10 +10379,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="200" t="s">
+      <c r="F485" s="254" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="200"/>
+      <c r="G485" s="254"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10404,10 +10404,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="200" t="s">
+      <c r="F486" s="254" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="200"/>
+      <c r="G486" s="254"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -10426,13 +10426,13 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="207" t="s">
+      <c r="F487" s="245" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="207"/>
-      <c r="H487" s="138">
+      <c r="G487" s="245"/>
+      <c r="H487" s="137">
         <f>SUM(H478:H486)+0.01</f>
-        <v>369853.66000000003</v>
+        <v>387344.83</v>
       </c>
       <c r="I487" s="102"/>
       <c r="J487" s="102"/>
@@ -10451,7 +10451,7 @@
       <c r="H488" s="79"/>
       <c r="I488" s="79"/>
       <c r="J488" s="79"/>
-      <c r="K488" s="151"/>
+      <c r="K488" s="150"/>
       <c r="L488" s="79"/>
       <c r="M488" s="79"/>
     </row>
@@ -10466,7 +10466,7 @@
       <c r="H489" s="79"/>
       <c r="I489" s="79"/>
       <c r="J489" s="79"/>
-      <c r="K489" s="151"/>
+      <c r="K489" s="150"/>
       <c r="L489" s="79"/>
       <c r="M489" s="79"/>
     </row>
@@ -10485,7 +10485,7 @@
       <c r="H490" s="79"/>
       <c r="I490" s="79"/>
       <c r="J490" s="79"/>
-      <c r="K490" s="151"/>
+      <c r="K490" s="150"/>
       <c r="L490" s="79"/>
       <c r="M490" s="79"/>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="H491" s="79"/>
       <c r="I491" s="79"/>
       <c r="J491" s="79"/>
-      <c r="K491" s="151"/>
+      <c r="K491" s="150"/>
       <c r="L491" s="79"/>
       <c r="M491" s="79"/>
     </row>
@@ -10513,13 +10513,13 @@
       <c r="D492" s="79"/>
       <c r="E492" s="79"/>
       <c r="F492" s="119" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G492" s="78"/>
       <c r="H492" s="79"/>
       <c r="I492" s="79"/>
       <c r="J492" s="79"/>
-      <c r="K492" s="151"/>
+      <c r="K492" s="150"/>
       <c r="L492" s="79"/>
       <c r="M492" s="79"/>
     </row>
@@ -10534,7 +10534,7 @@
       <c r="H493" s="79"/>
       <c r="I493" s="79"/>
       <c r="J493" s="79"/>
-      <c r="K493" s="151"/>
+      <c r="K493" s="150"/>
       <c r="L493" s="79"/>
       <c r="M493" s="79"/>
     </row>
@@ -10553,7 +10553,7 @@
       <c r="H494" s="79"/>
       <c r="I494" s="79"/>
       <c r="J494" s="79"/>
-      <c r="K494" s="151"/>
+      <c r="K494" s="150"/>
       <c r="L494" s="79"/>
       <c r="M494" s="79"/>
     </row>
@@ -10568,33 +10568,33 @@
       <c r="H495" s="79"/>
       <c r="I495" s="79"/>
       <c r="J495" s="79"/>
-      <c r="K495" s="151"/>
+      <c r="K495" s="150"/>
       <c r="L495" s="79"/>
       <c r="M495" s="79"/>
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="208" t="s">
+      <c r="B496" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="209"/>
-      <c r="D496" s="212" t="s">
+      <c r="C496" s="247"/>
+      <c r="D496" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="213"/>
-      <c r="F496" s="213"/>
-      <c r="G496" s="213"/>
-      <c r="H496" s="213"/>
-      <c r="I496" s="213"/>
-      <c r="J496" s="214"/>
+      <c r="E496" s="167"/>
+      <c r="F496" s="167"/>
+      <c r="G496" s="167"/>
+      <c r="H496" s="167"/>
+      <c r="I496" s="167"/>
+      <c r="J496" s="168"/>
       <c r="K496" s="21"/>
-      <c r="L496" s="215"/>
+      <c r="L496" s="250"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="210"/>
-      <c r="C497" s="211"/>
+      <c r="B497" s="248"/>
+      <c r="C497" s="249"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10617,40 +10617,40 @@
         <v>10</v>
       </c>
       <c r="K497" s="21"/>
-      <c r="L497" s="215"/>
+      <c r="L497" s="250"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="216" t="s">
-        <v>337</v>
-      </c>
-      <c r="C498" s="217"/>
+      <c r="B498" s="224" t="s">
+        <v>330</v>
+      </c>
+      <c r="C498" s="226"/>
       <c r="D498" s="102"/>
-      <c r="E498" s="142">
+      <c r="E498" s="141">
         <v>3500</v>
       </c>
       <c r="F498" s="102"/>
-      <c r="G498" s="142">
+      <c r="G498" s="141">
         <v>3500</v>
       </c>
       <c r="H498" s="102"/>
-      <c r="I498" s="142">
+      <c r="I498" s="141">
         <v>3500</v>
       </c>
-      <c r="J498" s="142">
+      <c r="J498" s="141">
         <v>3500</v>
       </c>
-      <c r="K498" s="159"/>
+      <c r="K498" s="158"/>
       <c r="L498" s="39"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="169" t="s">
+      <c r="B499" s="241" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="170"/>
+      <c r="C499" s="243"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10658,16 +10658,16 @@
       <c r="H499" s="81"/>
       <c r="I499" s="102"/>
       <c r="J499" s="102"/>
-      <c r="K499" s="151"/>
+      <c r="K499" s="150"/>
       <c r="L499" s="39"/>
       <c r="M499" s="79"/>
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="169" t="s">
+      <c r="B500" s="241" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="170"/>
+      <c r="C500" s="243"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10675,22 +10675,22 @@
       <c r="H500" s="81"/>
       <c r="I500" s="102"/>
       <c r="J500" s="102"/>
-      <c r="K500" s="151"/>
+      <c r="K500" s="150"/>
       <c r="L500" s="39"/>
       <c r="M500" s="79"/>
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="160"/>
-      <c r="C501" s="160"/>
-      <c r="D501" s="160"/>
+      <c r="B501" s="257"/>
+      <c r="C501" s="257"/>
+      <c r="D501" s="257"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
       <c r="H501" s="79"/>
       <c r="I501" s="79"/>
       <c r="J501" s="79"/>
-      <c r="K501" s="151"/>
+      <c r="K501" s="150"/>
       <c r="L501" s="79"/>
       <c r="M501" s="79"/>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="H502" s="79"/>
       <c r="I502" s="79"/>
       <c r="J502" s="79"/>
-      <c r="K502" s="151"/>
+      <c r="K502" s="150"/>
       <c r="L502" s="79"/>
       <c r="M502" s="79"/>
     </row>
@@ -10724,7 +10724,7 @@
       <c r="H503" s="79"/>
       <c r="I503" s="79"/>
       <c r="J503" s="79"/>
-      <c r="K503" s="151"/>
+      <c r="K503" s="150"/>
       <c r="L503" s="79"/>
       <c r="M503" s="79"/>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="H504" s="79"/>
       <c r="I504" s="79"/>
       <c r="J504" s="79"/>
-      <c r="K504" s="151"/>
+      <c r="K504" s="150"/>
       <c r="L504" s="79"/>
       <c r="M504" s="79"/>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="H505" s="79"/>
       <c r="I505" s="79"/>
       <c r="J505" s="79"/>
-      <c r="K505" s="151"/>
+      <c r="K505" s="150"/>
       <c r="L505" s="79"/>
       <c r="M505" s="79"/>
     </row>
@@ -10777,7 +10777,7 @@
       <c r="H506" s="79"/>
       <c r="I506" s="79"/>
       <c r="J506" s="79"/>
-      <c r="K506" s="151"/>
+      <c r="K506" s="150"/>
       <c r="L506" s="79"/>
       <c r="M506" s="79"/>
     </row>
@@ -10794,7 +10794,7 @@
       <c r="H507" s="79"/>
       <c r="I507" s="79"/>
       <c r="J507" s="79"/>
-      <c r="K507" s="151"/>
+      <c r="K507" s="150"/>
       <c r="L507" s="79"/>
       <c r="M507" s="79"/>
     </row>
@@ -10811,7 +10811,7 @@
       <c r="H508" s="79"/>
       <c r="I508" s="79"/>
       <c r="J508" s="79"/>
-      <c r="K508" s="151"/>
+      <c r="K508" s="150"/>
       <c r="L508" s="79"/>
       <c r="M508" s="79"/>
     </row>
@@ -10828,7 +10828,7 @@
       <c r="H509" s="79"/>
       <c r="I509" s="79"/>
       <c r="J509" s="79"/>
-      <c r="K509" s="151"/>
+      <c r="K509" s="150"/>
       <c r="L509" s="79"/>
       <c r="M509" s="79"/>
     </row>
@@ -10843,7 +10843,7 @@
       <c r="H510" s="79"/>
       <c r="I510" s="79"/>
       <c r="J510" s="79"/>
-      <c r="K510" s="151"/>
+      <c r="K510" s="150"/>
       <c r="L510" s="79"/>
       <c r="M510" s="79"/>
     </row>
@@ -10862,7 +10862,7 @@
       <c r="H511" s="79"/>
       <c r="I511" s="79"/>
       <c r="J511" s="79"/>
-      <c r="K511" s="151"/>
+      <c r="K511" s="150"/>
       <c r="L511" s="79"/>
       <c r="M511" s="79"/>
     </row>
@@ -10877,7 +10877,7 @@
       <c r="H512" s="79"/>
       <c r="I512" s="79"/>
       <c r="J512" s="79"/>
-      <c r="K512" s="151"/>
+      <c r="K512" s="150"/>
       <c r="L512" s="79"/>
       <c r="M512" s="79"/>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="H513" s="79"/>
       <c r="I513" s="79"/>
       <c r="J513" s="79"/>
-      <c r="K513" s="151"/>
+      <c r="K513" s="150"/>
       <c r="L513" s="79"/>
       <c r="M513" s="79"/>
     </row>
@@ -10915,7 +10915,7 @@
       <c r="H514" s="79"/>
       <c r="I514" s="79"/>
       <c r="J514" s="79"/>
-      <c r="K514" s="151"/>
+      <c r="K514" s="150"/>
       <c r="L514" s="79"/>
       <c r="M514" s="79"/>
     </row>
@@ -10932,7 +10932,7 @@
       <c r="H515" s="79"/>
       <c r="I515" s="79"/>
       <c r="J515" s="79"/>
-      <c r="K515" s="151"/>
+      <c r="K515" s="150"/>
       <c r="L515" s="79"/>
       <c r="M515" s="79"/>
     </row>
@@ -10949,7 +10949,7 @@
       <c r="H516" s="79"/>
       <c r="I516" s="79"/>
       <c r="J516" s="79"/>
-      <c r="K516" s="151"/>
+      <c r="K516" s="150"/>
       <c r="L516" s="79"/>
       <c r="M516" s="79"/>
     </row>
@@ -10966,7 +10966,7 @@
       <c r="H517" s="79"/>
       <c r="I517" s="79"/>
       <c r="J517" s="79"/>
-      <c r="K517" s="151"/>
+      <c r="K517" s="150"/>
       <c r="L517" s="79"/>
       <c r="M517" s="79"/>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="H518" s="79"/>
       <c r="I518" s="79"/>
       <c r="J518" s="79"/>
-      <c r="K518" s="151"/>
+      <c r="K518" s="150"/>
       <c r="L518" s="79"/>
       <c r="M518" s="79"/>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="H521" s="18"/>
       <c r="I521" s="79"/>
       <c r="J521" s="79"/>
-      <c r="K521" s="151"/>
+      <c r="K521" s="150"/>
       <c r="L521" s="79"/>
     </row>
     <row r="522" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11041,7 +11041,7 @@
       <c r="H523" s="18"/>
       <c r="I523" s="79"/>
       <c r="J523" s="79"/>
-      <c r="K523" s="151"/>
+      <c r="K523" s="150"/>
       <c r="L523" s="79"/>
     </row>
     <row r="524" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11055,7 +11055,7 @@
       <c r="H524" s="18"/>
       <c r="I524" s="79"/>
       <c r="J524" s="79"/>
-      <c r="K524" s="151"/>
+      <c r="K524" s="150"/>
       <c r="L524" s="79"/>
     </row>
     <row r="525" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11069,7 +11069,7 @@
       <c r="H525" s="18"/>
       <c r="I525" s="79"/>
       <c r="J525" s="79"/>
-      <c r="K525" s="151"/>
+      <c r="K525" s="150"/>
       <c r="L525" s="79"/>
     </row>
     <row r="526" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11082,7 +11082,7 @@
       <c r="H526" s="18"/>
       <c r="I526" s="79"/>
       <c r="J526" s="79"/>
-      <c r="K526" s="151"/>
+      <c r="K526" s="150"/>
       <c r="L526" s="79"/>
     </row>
     <row r="527" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11095,26 +11095,26 @@
       <c r="H527" s="128"/>
       <c r="I527" s="79"/>
       <c r="J527" s="79"/>
-      <c r="K527" s="151"/>
+      <c r="K527" s="150"/>
       <c r="L527" s="79"/>
     </row>
     <row r="528" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C528" s="18"/>
       <c r="I528" s="79"/>
       <c r="J528" s="79"/>
-      <c r="K528" s="151"/>
+      <c r="K528" s="150"/>
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="205" t="s">
+      <c r="A529" s="196" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="205"/>
-      <c r="C529" s="205"/>
-      <c r="D529" s="205"/>
+      <c r="B529" s="196"/>
+      <c r="C529" s="196"/>
+      <c r="D529" s="196"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
-      <c r="K529" s="151"/>
+      <c r="K529" s="150"/>
       <c r="L529" s="79"/>
     </row>
     <row r="530" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11128,7 +11128,7 @@
       <c r="H530" s="18"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
-      <c r="K530" s="151"/>
+      <c r="K530" s="150"/>
       <c r="L530" s="79"/>
     </row>
     <row r="531" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11142,7 +11142,7 @@
       <c r="H531" s="18"/>
       <c r="I531" s="79"/>
       <c r="J531" s="79"/>
-      <c r="K531" s="151"/>
+      <c r="K531" s="150"/>
       <c r="L531" s="79"/>
     </row>
     <row r="532" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11156,7 +11156,7 @@
       <c r="H532" s="18"/>
       <c r="I532" s="79"/>
       <c r="J532" s="79"/>
-      <c r="K532" s="151"/>
+      <c r="K532" s="150"/>
       <c r="L532" s="79"/>
     </row>
     <row r="533" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11172,7 +11172,7 @@
       <c r="H533" s="78"/>
       <c r="I533" s="78"/>
       <c r="J533" s="78"/>
-      <c r="K533" s="150"/>
+      <c r="K533" s="149"/>
       <c r="L533" s="18"/>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.3">
@@ -11186,39 +11186,39 @@
       <c r="H534" s="78"/>
       <c r="I534" s="78"/>
       <c r="J534" s="78"/>
-      <c r="K534" s="150"/>
+      <c r="K534" s="149"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="206" t="s">
+      <c r="A535" s="244" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="206"/>
-      <c r="C535" s="206"/>
-      <c r="D535" s="206"/>
-      <c r="E535" s="206"/>
-      <c r="F535" s="206"/>
-      <c r="G535" s="206"/>
-      <c r="H535" s="206"/>
-      <c r="I535" s="206"/>
-      <c r="J535" s="206"/>
-      <c r="K535" s="206"/>
-      <c r="L535" s="206"/>
+      <c r="B535" s="244"/>
+      <c r="C535" s="244"/>
+      <c r="D535" s="244"/>
+      <c r="E535" s="244"/>
+      <c r="F535" s="244"/>
+      <c r="G535" s="244"/>
+      <c r="H535" s="244"/>
+      <c r="I535" s="244"/>
+      <c r="J535" s="244"/>
+      <c r="K535" s="244"/>
+      <c r="L535" s="244"/>
     </row>
     <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="206" t="s">
+      <c r="A536" s="244" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="206"/>
-      <c r="C536" s="206"/>
-      <c r="D536" s="206"/>
-      <c r="E536" s="206"/>
-      <c r="F536" s="206"/>
-      <c r="G536" s="206"/>
-      <c r="H536" s="206"/>
-      <c r="I536" s="206"/>
-      <c r="J536" s="206"/>
-      <c r="K536" s="206"/>
-      <c r="L536" s="206"/>
+      <c r="B536" s="244"/>
+      <c r="C536" s="244"/>
+      <c r="D536" s="244"/>
+      <c r="E536" s="244"/>
+      <c r="F536" s="244"/>
+      <c r="G536" s="244"/>
+      <c r="H536" s="244"/>
+      <c r="I536" s="244"/>
+      <c r="J536" s="244"/>
+      <c r="K536" s="244"/>
+      <c r="L536" s="244"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -11231,7 +11231,7 @@
       <c r="H537" s="78"/>
       <c r="I537" s="78"/>
       <c r="J537" s="78"/>
-      <c r="K537" s="150"/>
+      <c r="K537" s="149"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="23" t="s">
@@ -11246,23 +11246,23 @@
       <c r="H538" s="78"/>
       <c r="I538" s="78"/>
       <c r="J538" s="78"/>
-      <c r="K538" s="150"/>
+      <c r="K538" s="149"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="206" t="s">
+      <c r="A539" s="244" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="206"/>
-      <c r="C539" s="206"/>
-      <c r="D539" s="206"/>
-      <c r="E539" s="206"/>
-      <c r="F539" s="206"/>
-      <c r="G539" s="206"/>
-      <c r="H539" s="206"/>
-      <c r="I539" s="206"/>
-      <c r="J539" s="206"/>
-      <c r="K539" s="206"/>
-      <c r="L539" s="206"/>
+      <c r="B539" s="244"/>
+      <c r="C539" s="244"/>
+      <c r="D539" s="244"/>
+      <c r="E539" s="244"/>
+      <c r="F539" s="244"/>
+      <c r="G539" s="244"/>
+      <c r="H539" s="244"/>
+      <c r="I539" s="244"/>
+      <c r="J539" s="244"/>
+      <c r="K539" s="244"/>
+      <c r="L539" s="244"/>
     </row>
     <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -11278,29 +11278,111 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B501:D501"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B327:L327"/>
+    <mergeCell ref="B341:L341"/>
+    <mergeCell ref="B358:L362"/>
+    <mergeCell ref="B299:L303"/>
+    <mergeCell ref="B306:L310"/>
+    <mergeCell ref="B321:L325"/>
+    <mergeCell ref="B335:L339"/>
+    <mergeCell ref="D367:L367"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:L535"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A539:L539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="L496:L497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
     <mergeCell ref="B369:L369"/>
     <mergeCell ref="B349:F349"/>
     <mergeCell ref="B351:F351"/>
@@ -11325,111 +11407,29 @@
     <mergeCell ref="B200:L204"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G52:J52"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:L535"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A539:L539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="L496:L497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B501:D501"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B327:L327"/>
-    <mergeCell ref="B341:L341"/>
-    <mergeCell ref="B358:L362"/>
-    <mergeCell ref="B299:L303"/>
-    <mergeCell ref="B306:L310"/>
-    <mergeCell ref="B321:L325"/>
-    <mergeCell ref="B335:L339"/>
-    <mergeCell ref="D367:L367"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="B235:L237"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
